--- a/data/model_inputs.xlsx
+++ b/data/model_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Validation lists" sheetId="1" state="visible" r:id="rId3"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="237">
   <si>
     <t xml:space="preserve">Validation_Lists</t>
   </si>
@@ -407,13 +407,22 @@
     <t xml:space="preserve">Model_Pars</t>
   </si>
   <si>
+    <t xml:space="preserve">Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Start year</t>
   </si>
   <si>
     <t xml:space="preserve">Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(months)</t>
+    <t xml:space="preserve">Time unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
   </si>
   <si>
     <t xml:space="preserve">Population scale factor</t>
@@ -1071,108 +1080,112 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,11 +1193,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1192,59 +1205,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1252,23 +1245,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1276,19 +1293,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1296,55 +1313,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,19 +1369,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1376,7 +1393,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1388,7 +1405,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1400,55 +1417,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1710,122 +1727,122 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1854,111 +1871,111 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="44" t="s">
-        <v>213</v>
+      <c r="B2" s="46" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="44" t="s">
-        <v>214</v>
+      <c r="B3" s="46" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="44" t="s">
-        <v>215</v>
+      <c r="B4" s="46" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="44"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>216</v>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="94" t="s">
-        <v>217</v>
+      <c r="B7" s="96" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="94" t="s">
-        <v>218</v>
+      <c r="B9" s="96" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="94" t="s">
-        <v>219</v>
+      <c r="B10" s="96" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="94" t="s">
-        <v>220</v>
+      <c r="B11" s="96" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="94" t="s">
-        <v>221</v>
+      <c r="B12" s="96" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>222</v>
+      <c r="B14" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="94" t="s">
-        <v>223</v>
+      <c r="B15" s="96" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="94" t="s">
-        <v>224</v>
+      <c r="B17" s="96" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="94" t="s">
-        <v>225</v>
+      <c r="C18" s="96" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="94" t="s">
-        <v>226</v>
+      <c r="C19" s="96" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="94" t="s">
-        <v>227</v>
+      <c r="B20" s="96" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="94" t="s">
-        <v>228</v>
+      <c r="B21" s="96" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="94" t="s">
-        <v>229</v>
+      <c r="B23" s="96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="94" t="s">
-        <v>230</v>
+      <c r="B26" s="96" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="94" t="s">
-        <v>231</v>
+      <c r="B27" s="96" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="94" t="s">
-        <v>232</v>
+      <c r="B28" s="96" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="94" t="s">
-        <v>233</v>
+      <c r="B29" s="96" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1985,1905 +2002,1905 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="J1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="7" t="n">
         <v>834602</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>827183</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="22" t="n">
         <v>5.2</v>
       </c>
-      <c r="G3" s="22" t="n">
+      <c r="G3" s="23" t="n">
         <v>1.4</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="25" t="n">
+      <c r="P3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="27" t="n">
         <v>0.0952769422030462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>801838</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="26" t="n">
         <v>794437</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="25" t="n">
+      <c r="P4" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="26" t="n">
+      <c r="S4" s="27" t="n">
         <v>0.0907598961572639</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>771246</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="26" t="n">
         <v>764347</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <v>0.089</v>
       </c>
-      <c r="P5" s="25" t="n">
+      <c r="P5" s="26" t="n">
         <v>0.977238972986109</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="26" t="n">
+      <c r="S5" s="27" t="n">
         <v>0.0944080355768089</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="n">
+      <c r="A6" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>744420</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="26" t="n">
         <v>738873</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>0.235</v>
       </c>
-      <c r="P6" s="25" t="n">
+      <c r="P6" s="26" t="n">
         <v>0.996853533116784</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="26" t="n">
+      <c r="S6" s="27" t="n">
         <v>0.0816313061671976</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="n">
+      <c r="A7" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>720646</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="26" t="n">
         <v>717187</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <v>0.205</v>
       </c>
-      <c r="P7" s="25" t="n">
+      <c r="P7" s="26" t="n">
         <v>0.959231602619851</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="26" t="n">
+      <c r="S7" s="27" t="n">
         <v>0.0909412064901171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
+      <c r="A8" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>698630</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="26" t="n">
         <v>697766</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>0.163</v>
       </c>
-      <c r="P8" s="25" t="n">
+      <c r="P8" s="26" t="n">
         <v>0.962663302199386</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="26" t="n">
+      <c r="S8" s="27" t="n">
         <v>0.0894491065924884</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+      <c r="A9" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>677081</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="26" t="n">
         <v>679087</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <v>0.113</v>
       </c>
-      <c r="P9" s="25" t="n">
+      <c r="P9" s="26" t="n">
         <v>0.95745816617066</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="26" t="n">
+      <c r="S9" s="27" t="n">
         <v>0.0839092664088719</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="n">
+      <c r="A10" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>654706</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="26" t="n">
         <v>659624</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <v>0.054</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" s="26" t="n">
         <v>0.959768654582646</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="26" t="n">
+      <c r="S10" s="27" t="n">
         <v>0.0903769773496902</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="n">
+      <c r="A11" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>630637</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="26" t="n">
         <v>638295</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="P11" s="25" t="n">
+      <c r="P11" s="26" t="n">
         <v>0.924586731967597</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="26" t="n">
+      <c r="S11" s="27" t="n">
         <v>0.0860651263285653</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="n">
+      <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>605712</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="26" t="n">
         <v>615781</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="25" t="n">
+      <c r="P12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="26" t="n">
+      <c r="S12" s="27" t="n">
         <v>0.0743172267903853</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="n">
+      <c r="A13" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>581191</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="26" t="n">
         <v>593200</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="1" t="n">
         <v>0.0703706495228</v>
       </c>
-      <c r="P13" s="25" t="n">
+      <c r="P13" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="26" t="n">
+      <c r="S13" s="27" t="n">
         <v>0.0757949300073362</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>558338</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="26" t="n">
         <v>571674</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="1" t="n">
         <v>0.00275</v>
       </c>
-      <c r="P14" s="25" t="n">
+      <c r="P14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="S14" s="29" t="n">
+      <c r="S14" s="30" t="n">
         <v>0.047069979928229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="n">
+      <c r="A15" s="28" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>538413</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="26" t="n">
         <v>552323</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15" s="1" t="n">
         <v>0.00118</v>
       </c>
-      <c r="P15" s="25" t="n">
+      <c r="P15" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="n">
+      <c r="A16" s="28" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>522206</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="26" t="n">
         <v>535867</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16" s="1" t="n">
         <v>0.00096</v>
       </c>
-      <c r="P16" s="25" t="n">
+      <c r="P16" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="n">
+      <c r="A17" s="28" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>508619</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="26" t="n">
         <v>521420</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="P17" s="25" t="n">
+      <c r="P17" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="n">
+      <c r="A18" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>496079</v>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="26" t="n">
         <v>507698</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18" s="1" t="n">
         <v>0.00172</v>
       </c>
-      <c r="P18" s="25" t="n">
+      <c r="P18" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="n">
+      <c r="A19" s="28" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>483015</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="26" t="n">
         <v>493416</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19" s="1" t="n">
         <v>0.00461064301992153</v>
       </c>
-      <c r="P19" s="25" t="n">
+      <c r="P19" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="n">
+      <c r="A20" s="28" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>467855</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="26" t="n">
         <v>477286</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20" s="1" t="n">
         <v>0.0078380931338666</v>
       </c>
-      <c r="P20" s="25" t="n">
+      <c r="P20" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="n">
+      <c r="A21" s="28" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>449602</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="26" t="n">
         <v>458544</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21" s="1" t="n">
         <v>0.0219466607748265</v>
       </c>
-      <c r="P21" s="25" t="n">
+      <c r="P21" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="n">
+      <c r="A22" s="28" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>429550</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="26" t="n">
         <v>438498</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22" s="1" t="n">
         <v>0.0862190244725326</v>
       </c>
-      <c r="P22" s="25" t="n">
+      <c r="P22" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="n">
+      <c r="A23" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>409572</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="26" t="n">
         <v>418976</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="1" t="n">
         <v>0.0703706495228</v>
       </c>
-      <c r="P23" s="25" t="n">
+      <c r="P23" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="n">
+      <c r="A24" s="28" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>391535</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="26" t="n">
         <v>401808</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="1" t="n">
         <v>0.00275</v>
       </c>
-      <c r="P24" s="25" t="n">
+      <c r="P24" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="n">
+      <c r="A25" s="28" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>377311</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="26" t="n">
         <v>388821</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="1" t="n">
         <v>0.00118</v>
       </c>
-      <c r="P25" s="25" t="n">
+      <c r="P25" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="n">
+      <c r="A26" s="28" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>368084</v>
       </c>
-      <c r="C26" s="25" t="n">
+      <c r="C26" s="26" t="n">
         <v>381080</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="1" t="n">
         <v>0.00096</v>
       </c>
-      <c r="P26" s="25" t="n">
+      <c r="P26" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="n">
+      <c r="A27" s="28" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>362291</v>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="26" t="n">
         <v>376601</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="P27" s="25" t="n">
+      <c r="P27" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="n">
+      <c r="A28" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>357687</v>
       </c>
-      <c r="C28" s="25" t="n">
+      <c r="C28" s="26" t="n">
         <v>372636</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="1" t="n">
         <v>0.00172</v>
       </c>
-      <c r="P28" s="25" t="n">
+      <c r="P28" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="n">
+      <c r="A29" s="28" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>352023</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="26" t="n">
         <v>366438</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="1" t="n">
         <v>0.00629002247447884</v>
       </c>
-      <c r="P29" s="25" t="n">
+      <c r="P29" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="n">
+      <c r="A30" s="28" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>343054</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="26" t="n">
         <v>355259</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30" s="1" t="n">
         <v>0.0119510427015098</v>
       </c>
-      <c r="P30" s="25" t="n">
+      <c r="P30" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="n">
+      <c r="A31" s="28" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>329258</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="26" t="n">
         <v>337318</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31" s="1" t="n">
         <v>0.0310727110239255</v>
       </c>
-      <c r="P31" s="25" t="n">
+      <c r="P31" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="n">
+      <c r="A32" s="28" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>312015</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="26" t="n">
         <v>314708</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="M32" s="30" t="n">
+      <c r="M32" s="31" t="n">
         <v>75</v>
       </c>
-      <c r="N32" s="30" t="n">
+      <c r="N32" s="31" t="n">
         <v>100</v>
       </c>
-      <c r="O32" s="30" t="n">
+      <c r="O32" s="31" t="n">
         <v>0.103974071503135</v>
       </c>
-      <c r="P32" s="31" t="n">
+      <c r="P32" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="n">
+      <c r="A33" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>293433</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="26" t="n">
         <v>290486</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="n">
+      <c r="A34" s="28" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>275618</v>
       </c>
-      <c r="C34" s="25" t="n">
+      <c r="C34" s="26" t="n">
         <v>267712</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="n">
+      <c r="A35" s="28" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>260676</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="C35" s="26" t="n">
         <v>249444</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="n">
+      <c r="A36" s="28" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>250097</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="26" t="n">
         <v>237852</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="n">
+      <c r="A37" s="28" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>242902</v>
       </c>
-      <c r="C37" s="25" t="n">
+      <c r="C37" s="26" t="n">
         <v>231546</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="n">
+      <c r="A38" s="28" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>237494</v>
       </c>
-      <c r="C38" s="25" t="n">
+      <c r="C38" s="26" t="n">
         <v>228249</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="n">
+      <c r="A39" s="28" t="n">
         <v>36</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>232277</v>
       </c>
-      <c r="C39" s="25" t="n">
+      <c r="C39" s="26" t="n">
         <v>225681</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="n">
+      <c r="A40" s="28" t="n">
         <v>37</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>225655</v>
       </c>
-      <c r="C40" s="25" t="n">
+      <c r="C40" s="26" t="n">
         <v>221566</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="n">
+      <c r="A41" s="28" t="n">
         <v>38</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>216461</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="26" t="n">
         <v>214202</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="n">
+      <c r="A42" s="28" t="n">
         <v>39</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>205251</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="26" t="n">
         <v>204207</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="n">
+      <c r="A43" s="28" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>193012</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="26" t="n">
         <v>192776</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="n">
+      <c r="A44" s="28" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>180729</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="26" t="n">
         <v>181102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="n">
+      <c r="A45" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>169388</v>
       </c>
-      <c r="C45" s="25" t="n">
+      <c r="C45" s="26" t="n">
         <v>170382</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27" t="n">
+      <c r="A46" s="28" t="n">
         <v>43</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>159755</v>
       </c>
-      <c r="C46" s="25" t="n">
+      <c r="C46" s="26" t="n">
         <v>161551</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="n">
+      <c r="A47" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>151707</v>
       </c>
-      <c r="C47" s="25" t="n">
+      <c r="C47" s="26" t="n">
         <v>154511</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27" t="n">
+      <c r="A48" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>144899</v>
       </c>
-      <c r="C48" s="25" t="n">
+      <c r="C48" s="26" t="n">
         <v>148905</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="n">
+      <c r="A49" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>138989</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="26" t="n">
         <v>144377</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="n">
+      <c r="A50" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>133631</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="26" t="n">
         <v>140568</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="n">
+      <c r="A51" s="28" t="n">
         <v>48</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>128529</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="26" t="n">
         <v>137140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="n">
+      <c r="A52" s="28" t="n">
         <v>49</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>123571</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="26" t="n">
         <v>133826</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="n">
+      <c r="A53" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>118690</v>
       </c>
-      <c r="C53" s="25" t="n">
+      <c r="C53" s="26" t="n">
         <v>130377</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="n">
+      <c r="A54" s="28" t="n">
         <v>51</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>113822</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="26" t="n">
         <v>126542</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27" t="n">
+      <c r="A55" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>108901</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="26" t="n">
         <v>122074</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="n">
+      <c r="A56" s="28" t="n">
         <v>53</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>103899</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="26" t="n">
         <v>116834</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27" t="n">
+      <c r="A57" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>98934</v>
       </c>
-      <c r="C57" s="25" t="n">
+      <c r="C57" s="26" t="n">
         <v>111137</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="27" t="n">
+      <c r="A58" s="28" t="n">
         <v>55</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>94164</v>
       </c>
-      <c r="C58" s="25" t="n">
+      <c r="C58" s="26" t="n">
         <v>105408</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27" t="n">
+      <c r="A59" s="28" t="n">
         <v>56</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>89744</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="26" t="n">
         <v>100073</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="n">
+      <c r="A60" s="28" t="n">
         <v>57</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>85832</v>
       </c>
-      <c r="C60" s="25" t="n">
+      <c r="C60" s="26" t="n">
         <v>95557</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="27" t="n">
+      <c r="A61" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>82523</v>
       </c>
-      <c r="C61" s="25" t="n">
+      <c r="C61" s="26" t="n">
         <v>92149</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27" t="n">
+      <c r="A62" s="28" t="n">
         <v>59</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>79684</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="26" t="n">
         <v>89582</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="27" t="n">
+      <c r="A63" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>77118</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="26" t="n">
         <v>87452</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27" t="n">
+      <c r="A64" s="28" t="n">
         <v>61</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>74631</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="26" t="n">
         <v>85353</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27" t="n">
+      <c r="A65" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>72029</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="26" t="n">
         <v>82882</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27" t="n">
+      <c r="A66" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>69151</v>
       </c>
-      <c r="C66" s="25" t="n">
+      <c r="C66" s="26" t="n">
         <v>79735</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27" t="n">
+      <c r="A67" s="28" t="n">
         <v>64</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>65975</v>
       </c>
-      <c r="C67" s="25" t="n">
+      <c r="C67" s="26" t="n">
         <v>76005</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="27" t="n">
+      <c r="A68" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>62514</v>
       </c>
-      <c r="C68" s="25" t="n">
+      <c r="C68" s="26" t="n">
         <v>71890</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="27" t="n">
+      <c r="A69" s="28" t="n">
         <v>66</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>58780</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="26" t="n">
         <v>67584</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="27" t="n">
+      <c r="A70" s="28" t="n">
         <v>67</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>54785</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="26" t="n">
         <v>63282</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="27" t="n">
+      <c r="A71" s="28" t="n">
         <v>68</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>50562</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="26" t="n">
         <v>59137</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="27" t="n">
+      <c r="A72" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>46216</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="26" t="n">
         <v>55130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="27" t="n">
+      <c r="A73" s="28" t="n">
         <v>70</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>41874</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="26" t="n">
         <v>51201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="27" t="n">
+      <c r="A74" s="28" t="n">
         <v>71</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>37660</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="26" t="n">
         <v>47288</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="27" t="n">
+      <c r="A75" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>33699</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="26" t="n">
         <v>43329</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="27" t="n">
+      <c r="A76" s="28" t="n">
         <v>73</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>30090</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="26" t="n">
         <v>39294</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="27" t="n">
+      <c r="A77" s="28" t="n">
         <v>74</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>26818</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="26" t="n">
         <v>35276</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="27" t="n">
+      <c r="A78" s="28" t="n">
         <v>75</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>23842</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="26" t="n">
         <v>31397</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="27" t="n">
+      <c r="A79" s="28" t="n">
         <v>76</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>21118</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="26" t="n">
         <v>27782</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="27" t="n">
+      <c r="A80" s="28" t="n">
         <v>77</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>18606</v>
       </c>
-      <c r="C80" s="25" t="n">
+      <c r="C80" s="26" t="n">
         <v>24554</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="27" t="n">
+      <c r="A81" s="28" t="n">
         <v>78</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>16271</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="26" t="n">
         <v>21797</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="27" t="n">
+      <c r="A82" s="28" t="n">
         <v>79</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>14114</v>
       </c>
-      <c r="C82" s="25" t="n">
+      <c r="C82" s="26" t="n">
         <v>19444</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="27" t="n">
+      <c r="A83" s="28" t="n">
         <v>80</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>12141</v>
       </c>
-      <c r="C83" s="25" t="n">
+      <c r="C83" s="26" t="n">
         <v>17388</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="27" t="n">
+      <c r="A84" s="28" t="n">
         <v>81</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>10360</v>
       </c>
-      <c r="C84" s="25" t="n">
+      <c r="C84" s="26" t="n">
         <v>15525</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="27" t="n">
+      <c r="A85" s="28" t="n">
         <v>82</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>8779</v>
       </c>
-      <c r="C85" s="25" t="n">
+      <c r="C85" s="26" t="n">
         <v>13747</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="27" t="n">
+      <c r="A86" s="28" t="n">
         <v>83</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>7401</v>
       </c>
-      <c r="C86" s="25" t="n">
+      <c r="C86" s="26" t="n">
         <v>11973</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="27" t="n">
+      <c r="A87" s="28" t="n">
         <v>84</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>6203</v>
       </c>
-      <c r="C87" s="25" t="n">
+      <c r="C87" s="26" t="n">
         <v>10223</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="27" t="n">
+      <c r="A88" s="28" t="n">
         <v>85</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>5160</v>
       </c>
-      <c r="C88" s="25" t="n">
+      <c r="C88" s="26" t="n">
         <v>8541</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="27" t="n">
+      <c r="A89" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>4244</v>
       </c>
-      <c r="C89" s="25" t="n">
+      <c r="C89" s="26" t="n">
         <v>6971</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="27" t="n">
+      <c r="A90" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>3429</v>
       </c>
-      <c r="C90" s="25" t="n">
+      <c r="C90" s="26" t="n">
         <v>5557</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="27" t="n">
+      <c r="A91" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>2694</v>
       </c>
-      <c r="C91" s="25" t="n">
+      <c r="C91" s="26" t="n">
         <v>4334</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="27" t="n">
+      <c r="A92" s="28" t="n">
         <v>89</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="C92" s="25" t="n">
+      <c r="C92" s="26" t="n">
         <v>3298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="27" t="n">
+      <c r="A93" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>1475</v>
       </c>
-      <c r="C93" s="25" t="n">
+      <c r="C93" s="26" t="n">
         <v>2439</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="27" t="n">
+      <c r="A94" s="28" t="n">
         <v>91</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="C94" s="25" t="n">
+      <c r="C94" s="26" t="n">
         <v>1744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="27" t="n">
+      <c r="A95" s="28" t="n">
         <v>92</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>639</v>
       </c>
-      <c r="C95" s="25" t="n">
+      <c r="C95" s="26" t="n">
         <v>1201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="27" t="n">
+      <c r="A96" s="28" t="n">
         <v>93</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="C96" s="25" t="n">
+      <c r="C96" s="26" t="n">
         <v>797</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="27" t="n">
+      <c r="A97" s="28" t="n">
         <v>94</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="C97" s="25" t="n">
+      <c r="C97" s="26" t="n">
         <v>511</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="27" t="n">
+      <c r="A98" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="C98" s="25" t="n">
+      <c r="C98" s="26" t="n">
         <v>322</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="27" t="n">
+      <c r="A99" s="28" t="n">
         <v>96</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C99" s="25" t="n">
+      <c r="C99" s="26" t="n">
         <v>206</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="27" t="n">
+      <c r="A100" s="28" t="n">
         <v>97</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C100" s="25" t="n">
+      <c r="C100" s="26" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="27" t="n">
+      <c r="A101" s="28" t="n">
         <v>98</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C101" s="25" t="n">
+      <c r="C101" s="26" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="27" t="n">
+      <c r="A102" s="28" t="n">
         <v>99</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C102" s="25" t="n">
+      <c r="C102" s="26" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="32" t="n">
+      <c r="A103" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="B103" s="30" t="n">
+      <c r="B103" s="31" t="n">
         <v>50</v>
       </c>
-      <c r="C103" s="31" t="n">
+      <c r="C103" s="32" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3911,284 +3928,284 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="35" t="n">
+      <c r="K3" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="36" t="n">
+      <c r="L3" s="37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="35" t="n">
+      <c r="J4" s="26"/>
+      <c r="K4" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="36" t="n">
+      <c r="L4" s="37" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="35" t="n">
+      <c r="K5" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="36" t="n">
+      <c r="L5" s="37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="35" t="n">
+      <c r="J6" s="26"/>
+      <c r="K6" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="36" t="n">
+      <c r="L6" s="37" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="35" t="n">
+      <c r="J7" s="26"/>
+      <c r="K7" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="36" t="n">
+      <c r="L7" s="37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="37" t="n">
+      <c r="J8" s="32"/>
+      <c r="K8" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="38" t="n">
+      <c r="L8" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,46 +4225,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="39" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4269,321 +4300,323 @@
   </sheetPr>
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="11.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>111</v>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="17" t="s">
         <v>119</v>
       </c>
+      <c r="G2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="40" t="n">
+      <c r="C3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="40" t="n">
+      <c r="D3" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="n">
+      <c r="E3" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="40" t="n">
+      <c r="F3" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="40" t="n">
+      <c r="G3" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="40" t="n">
+      <c r="H3" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="41" t="n">
+      <c r="I3" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="40" t="n">
+      <c r="C4" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="40" t="n">
+      <c r="D4" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="40" t="n">
+      <c r="E4" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="40" t="n">
+      <c r="F4" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="40" t="n">
+      <c r="G4" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="40" t="n">
+      <c r="H4" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="41" t="n">
+      <c r="I4" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="40" t="n">
+      <c r="C5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="40" t="n">
+      <c r="E5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="40" t="n">
+      <c r="F5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="40" t="n">
+      <c r="G5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="40" t="n">
+      <c r="H5" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="41" t="n">
+      <c r="I5" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="42" t="n">
+      <c r="C6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="42" t="n">
+      <c r="D6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="42" t="n">
+      <c r="E6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="42" t="n">
+      <c r="F6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="G6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="42" t="n">
+      <c r="H6" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="43" t="n">
+      <c r="I6" s="45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="44" t="s">
-        <v>120</v>
+      <c r="B8" s="46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>121</v>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>122</v>
+      <c r="B11" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" s="45" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46"/>
-      <c r="C14" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="46" t="s">
+      <c r="B13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="17" t="s">
+    </row>
+    <row r="14" s="47" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="D14" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="E14" s="48" t="s">
         <v>129</v>
       </c>
+      <c r="F14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48" t="n">
+      <c r="C15" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="49" t="n">
+      <c r="D15" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="40" t="n">
+      <c r="E15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="42" t="n">
         <v>15</v>
       </c>
-      <c r="G15" s="50" t="n">
+      <c r="G15" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="H15" s="51" t="n">
+      <c r="H15" s="53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="40" t="n">
+      <c r="C16" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="52" t="n">
+      <c r="D16" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="40" t="n">
+      <c r="E16" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="50" t="n">
+      <c r="G16" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="H16" s="53" t="n">
+      <c r="H16" s="55" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="40" t="n">
+      <c r="C17" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="52" t="n">
+      <c r="D17" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="40" t="n">
+      <c r="E17" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="50" t="n">
+      <c r="G17" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="H17" s="53" t="n">
+      <c r="H17" s="55" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="52" t="n">
+      <c r="D18" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="40" t="n">
+      <c r="E18" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="50" t="n">
+      <c r="G18" s="52" t="n">
         <v>0.2</v>
       </c>
-      <c r="H18" s="53" t="n">
+      <c r="H18" s="55" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="42" t="n">
+      <c r="C19" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="D19" s="54" t="n">
+      <c r="D19" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="42" t="n">
+      <c r="E19" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="44" t="n">
         <v>12</v>
       </c>
-      <c r="G19" s="55" t="n">
+      <c r="G19" s="57" t="n">
         <v>0.2</v>
       </c>
-      <c r="H19" s="56" t="n">
+      <c r="H19" s="58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="44" t="s">
-        <v>131</v>
+      <c r="B21" s="46" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>132</v>
+      <c r="B23" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>133</v>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4610,255 +4643,255 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" s="45" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" s="47" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>142</v>
       </c>
+      <c r="G2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="n">
+      <c r="C3" s="59" t="n">
         <v>18</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="58" t="n">
+      <c r="F3" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="59" t="n">
+      <c r="H3" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="37" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="57" t="n">
+      <c r="C4" s="59" t="n">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="60" t="n">
+      <c r="F4" s="62" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="59" t="n">
+      <c r="H4" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="I4" s="36" t="n">
+      <c r="I4" s="37" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="57" t="n">
+      <c r="C5" s="59" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="58" t="n">
+      <c r="F5" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="59" t="n">
+      <c r="H5" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" s="36" t="n">
+      <c r="I5" s="37" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="57" t="n">
+      <c r="C6" s="59" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="60" t="n">
+      <c r="F6" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="59" t="n">
+      <c r="H6" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="36" t="n">
+      <c r="I6" s="37" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
-      <c r="C7" s="57" t="n">
+      <c r="C7" s="59" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="60" t="n">
+      <c r="F7" s="62" t="n">
         <v>0.6</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="61" t="n">
         <v>12</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="36" t="n">
+      <c r="I7" s="37" t="n">
         <f aca="false">3*30</f>
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="30" t="n">
+      <c r="B8" s="31" t="n">
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
-      <c r="C8" s="61" t="n">
+      <c r="C8" s="63" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="30" t="n">
+      <c r="E8" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="62" t="n">
+      <c r="F8" s="64" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" s="63" t="n">
+      <c r="G8" s="65" t="n">
         <v>12</v>
       </c>
-      <c r="H8" s="63" t="n">
+      <c r="H8" s="65" t="n">
         <v>0.75</v>
       </c>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="39" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="10" s="45" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="45" t="s">
+    <row r="10" s="47" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="C10" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="F10" s="47" t="s">
         <v>149</v>
       </c>
+      <c r="G10" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="s">
-        <v>150</v>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="0" t="s">
-        <v>151</v>
+      <c r="F13" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="64" t="s">
-        <v>152</v>
+      <c r="F15" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4885,201 +4918,201 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" s="45" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="G1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="17" t="s">
+    </row>
+    <row r="2" s="47" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="65" t="s">
+      <c r="C2" s="18" t="s">
         <v>160</v>
       </c>
+      <c r="D2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58" t="n">
+      <c r="C3" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="D3" s="60" t="n">
+      <c r="D3" s="62" t="n">
         <v>0.8</v>
       </c>
-      <c r="E3" s="66" t="n">
+      <c r="E3" s="68" t="n">
         <v>0.75</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>161</v>
+      <c r="H3" s="51" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="58" t="n">
+      <c r="C4" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="60" t="n">
+      <c r="D4" s="62" t="n">
         <v>0.98</v>
       </c>
-      <c r="E4" s="66" t="n">
+      <c r="E4" s="68" t="n">
         <v>0.75</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>161</v>
+      <c r="H4" s="54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="58" t="n">
+      <c r="C5" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" s="60" t="n">
+      <c r="D5" s="62" t="n">
         <v>0.85</v>
       </c>
-      <c r="E5" s="66" t="n">
+      <c r="E5" s="68" t="n">
         <v>0.95</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>162</v>
+      <c r="H5" s="54" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="58" t="n">
+      <c r="C6" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="D6" s="60" t="n">
+      <c r="D6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="66" t="n">
+      <c r="E6" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>161</v>
+      <c r="H6" s="56" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="58" t="n">
+      <c r="C7" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="D7" s="60" t="n">
+      <c r="D7" s="62" t="n">
         <v>0.9</v>
       </c>
-      <c r="E7" s="66" t="n">
+      <c r="E7" s="68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="58" t="n">
+      <c r="C8" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="D8" s="60" t="n">
+      <c r="D8" s="62" t="n">
         <v>0.97</v>
       </c>
-      <c r="E8" s="66" t="n">
+      <c r="E8" s="68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="67" t="n">
+      <c r="C9" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="62" t="n">
+      <c r="D9" s="64" t="n">
         <v>0.99</v>
       </c>
-      <c r="E9" s="68" t="n">
+      <c r="E9" s="70" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" s="45" customFormat="true" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>165</v>
+    <row r="11" s="47" customFormat="true" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="69" t="s">
-        <v>166</v>
+      <c r="E12" s="71" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5109,689 +5142,689 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>169</v>
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="F2" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>176</v>
       </c>
+      <c r="L2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="A3" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="58" t="n">
+      <c r="B3" s="60" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="70" t="n">
+      <c r="C3" s="72" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D3" s="58" t="n">
+      <c r="D3" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="70" t="n">
+      <c r="E3" s="72" t="n">
         <v>0.0005</v>
       </c>
-      <c r="F3" s="71" t="n">
+      <c r="F3" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="72" t="n">
+      <c r="I3" s="74" t="n">
         <v>0.04</v>
       </c>
-      <c r="J3" s="73" t="n">
+      <c r="J3" s="75" t="n">
         <f aca="false">I3</f>
         <v>0.04</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="74" t="n">
+      <c r="M3" s="76" t="n">
         <f aca="false">0.07</f>
         <v>0.07</v>
       </c>
-      <c r="N3" s="75" t="n">
+      <c r="N3" s="77" t="n">
         <v>0.025</v>
       </c>
-      <c r="O3" s="76" t="n">
+      <c r="O3" s="78" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+      <c r="A4" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="58" t="n">
+      <c r="B4" s="60" t="n">
         <v>0.7</v>
       </c>
-      <c r="C4" s="70" t="n">
+      <c r="C4" s="72" t="n">
         <f aca="false">C3+0.0005</f>
         <v>0.001</v>
       </c>
-      <c r="D4" s="58" t="n">
+      <c r="D4" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="70" t="n">
+      <c r="E4" s="72" t="n">
         <f aca="false">E3+0.0005</f>
         <v>0.001</v>
       </c>
-      <c r="F4" s="71" t="n">
+      <c r="F4" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="72" t="n">
+      <c r="I4" s="74" t="n">
         <v>0.02</v>
       </c>
-      <c r="J4" s="73" t="n">
+      <c r="J4" s="75" t="n">
         <f aca="false">I4</f>
         <v>0.02</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="77" t="n">
+      <c r="M4" s="79" t="n">
         <f aca="false">0.5</f>
         <v>0.5</v>
       </c>
-      <c r="N4" s="78" t="n">
+      <c r="N4" s="80" t="n">
         <f aca="false">M4/2</f>
         <v>0.25</v>
       </c>
-      <c r="O4" s="79" t="n">
+      <c r="O4" s="81" t="n">
         <f aca="false">N4/2</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+      <c r="A5" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="n">
+      <c r="B5" s="60" t="n">
         <v>0.75</v>
       </c>
-      <c r="C5" s="70" t="n">
+      <c r="C5" s="72" t="n">
         <f aca="false">C4+0.0005</f>
         <v>0.0015</v>
       </c>
-      <c r="D5" s="58" t="n">
+      <c r="D5" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="70" t="n">
+      <c r="E5" s="72" t="n">
         <f aca="false">E4+0.0005</f>
         <v>0.0015</v>
       </c>
-      <c r="F5" s="71" t="n">
+      <c r="F5" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="72" t="n">
+      <c r="I5" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="73" t="n">
+      <c r="J5" s="75" t="n">
         <f aca="false">I5</f>
         <v>0.01</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="80" t="n">
+      <c r="M5" s="82" t="n">
         <f aca="false">0.4</f>
         <v>0.4</v>
       </c>
-      <c r="N5" s="81" t="n">
+      <c r="N5" s="83" t="n">
         <f aca="false">M5/2</f>
         <v>0.2</v>
       </c>
-      <c r="O5" s="82" t="n">
+      <c r="O5" s="84" t="n">
         <f aca="false">N5/2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+      <c r="A6" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="58" t="n">
+      <c r="B6" s="60" t="n">
         <v>0.8</v>
       </c>
-      <c r="C6" s="70" t="n">
+      <c r="C6" s="72" t="n">
         <f aca="false">C5+0.0005</f>
         <v>0.002</v>
       </c>
-      <c r="D6" s="58" t="n">
+      <c r="D6" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="70" t="n">
+      <c r="E6" s="72" t="n">
         <f aca="false">E5+0.0005</f>
         <v>0.002</v>
       </c>
-      <c r="F6" s="71" t="n">
+      <c r="F6" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="72" t="n">
+      <c r="I6" s="74" t="n">
         <v>0.005</v>
       </c>
-      <c r="J6" s="73" t="n">
+      <c r="J6" s="75" t="n">
         <f aca="false">I6</f>
         <v>0.005</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+      <c r="A7" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="58" t="n">
+      <c r="B7" s="60" t="n">
         <v>0.9</v>
       </c>
-      <c r="C7" s="70" t="n">
+      <c r="C7" s="72" t="n">
         <f aca="false">C6+0.0005</f>
         <v>0.0025</v>
       </c>
-      <c r="D7" s="58" t="n">
+      <c r="D7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="70" t="n">
+      <c r="E7" s="72" t="n">
         <f aca="false">E6+0.0005</f>
         <v>0.0025</v>
       </c>
-      <c r="F7" s="71" t="n">
+      <c r="F7" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="72" t="n">
+      <c r="I7" s="74" t="n">
         <f aca="false">I6</f>
         <v>0.005</v>
       </c>
-      <c r="J7" s="73" t="n">
+      <c r="J7" s="75" t="n">
         <f aca="false">I7</f>
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="n">
+      <c r="A8" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="58" t="n">
+      <c r="B8" s="60" t="n">
         <v>0.98</v>
       </c>
-      <c r="C8" s="70" t="n">
+      <c r="C8" s="72" t="n">
         <f aca="false">C7+0.0005</f>
         <v>0.003</v>
       </c>
-      <c r="D8" s="58" t="n">
+      <c r="D8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="70" t="n">
+      <c r="E8" s="72" t="n">
         <f aca="false">E7+0.0005</f>
         <v>0.003</v>
       </c>
-      <c r="F8" s="71" t="n">
+      <c r="F8" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="72" t="n">
+      <c r="I8" s="74" t="n">
         <f aca="false">I7</f>
         <v>0.005</v>
       </c>
-      <c r="J8" s="73" t="n">
+      <c r="J8" s="75" t="n">
         <f aca="false">I8</f>
         <v>0.005</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>177</v>
+      <c r="L8" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="n">
+      <c r="A9" s="54" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="58" t="n">
+      <c r="B9" s="60" t="n">
         <f aca="false">B8</f>
         <v>0.98</v>
       </c>
-      <c r="C9" s="70" t="n">
+      <c r="C9" s="72" t="n">
         <f aca="false">C8+0.0005</f>
         <v>0.0035</v>
       </c>
-      <c r="D9" s="58" t="n">
+      <c r="D9" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="70" t="n">
+      <c r="E9" s="72" t="n">
         <f aca="false">E8+0.0005</f>
         <v>0.0035</v>
       </c>
-      <c r="F9" s="71" t="n">
+      <c r="F9" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="72" t="n">
+      <c r="I9" s="74" t="n">
         <v>0.003</v>
       </c>
-      <c r="J9" s="73" t="n">
+      <c r="J9" s="75" t="n">
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
-      <c r="L9" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>179</v>
+      <c r="L9" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="n">
+      <c r="A10" s="54" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="58" t="n">
+      <c r="B10" s="60" t="n">
         <f aca="false">B9</f>
         <v>0.98</v>
       </c>
-      <c r="C10" s="70" t="n">
+      <c r="C10" s="72" t="n">
         <f aca="false">C9+0.0005</f>
         <v>0.004</v>
       </c>
-      <c r="D10" s="58" t="n">
+      <c r="D10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="70" t="n">
+      <c r="E10" s="72" t="n">
         <f aca="false">E9+0.0005</f>
         <v>0.004</v>
       </c>
-      <c r="F10" s="71" t="n">
+      <c r="F10" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="I10" s="72" t="n">
+      <c r="I10" s="74" t="n">
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
-      <c r="J10" s="73" t="n">
+      <c r="J10" s="75" t="n">
         <f aca="false">I10</f>
         <v>0.003</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="83" t="n">
+      <c r="M10" s="85" t="n">
         <v>0.01</v>
       </c>
-      <c r="N10" s="84" t="n">
+      <c r="N10" s="86" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="n">
+      <c r="A11" s="54" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="58" t="n">
+      <c r="B11" s="60" t="n">
         <f aca="false">B10</f>
         <v>0.98</v>
       </c>
-      <c r="C11" s="70" t="n">
+      <c r="C11" s="72" t="n">
         <f aca="false">C10+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D11" s="58" t="n">
+      <c r="D11" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="70" t="n">
+      <c r="E11" s="72" t="n">
         <f aca="false">E10+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="F11" s="71" t="n">
+      <c r="F11" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="24" t="n">
+      <c r="H11" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="72" t="n">
+      <c r="I11" s="74" t="n">
         <f aca="false">I10</f>
         <v>0.003</v>
       </c>
-      <c r="J11" s="73" t="n">
+      <c r="J11" s="75" t="n">
         <f aca="false">I11</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
+      <c r="A12" s="54" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="58" t="n">
+      <c r="B12" s="60" t="n">
         <f aca="false">B11</f>
         <v>0.98</v>
       </c>
-      <c r="C12" s="70" t="n">
+      <c r="C12" s="72" t="n">
         <f aca="false">C11+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D12" s="58" t="n">
+      <c r="D12" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="70" t="n">
+      <c r="E12" s="72" t="n">
         <f aca="false">E11+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="F12" s="71" t="n">
+      <c r="F12" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="72" t="n">
+      <c r="I12" s="74" t="n">
         <f aca="false">I11</f>
         <v>0.003</v>
       </c>
-      <c r="J12" s="73" t="n">
+      <c r="J12" s="75" t="n">
         <f aca="false">I12</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+      <c r="A13" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="58" t="n">
+      <c r="B13" s="60" t="n">
         <f aca="false">B12</f>
         <v>0.98</v>
       </c>
-      <c r="C13" s="70" t="n">
+      <c r="C13" s="72" t="n">
         <f aca="false">C12+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D13" s="58" t="n">
+      <c r="D13" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="70" t="n">
+      <c r="E13" s="72" t="n">
         <f aca="false">E12+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="F13" s="71" t="n">
+      <c r="F13" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H13" s="24" t="n">
+      <c r="H13" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="72" t="n">
+      <c r="I13" s="74" t="n">
         <f aca="false">I12</f>
         <v>0.003</v>
       </c>
-      <c r="J13" s="73" t="n">
+      <c r="J13" s="75" t="n">
         <f aca="false">I13</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="n">
+      <c r="A14" s="54" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="58" t="n">
+      <c r="B14" s="60" t="n">
         <f aca="false">B13</f>
         <v>0.98</v>
       </c>
-      <c r="C14" s="70" t="n">
+      <c r="C14" s="72" t="n">
         <f aca="false">C13+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D14" s="58" t="n">
+      <c r="D14" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="70" t="n">
+      <c r="E14" s="72" t="n">
         <f aca="false">E13+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="F14" s="71" t="n">
+      <c r="F14" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="I14" s="72" t="n">
+      <c r="I14" s="74" t="n">
         <f aca="false">I13</f>
         <v>0.003</v>
       </c>
-      <c r="J14" s="73" t="n">
+      <c r="J14" s="75" t="n">
         <f aca="false">I14</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="n">
+      <c r="A15" s="54" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="58" t="n">
+      <c r="B15" s="60" t="n">
         <f aca="false">B14</f>
         <v>0.98</v>
       </c>
-      <c r="C15" s="70" t="n">
+      <c r="C15" s="72" t="n">
         <v>0.01</v>
       </c>
-      <c r="D15" s="85" t="n">
+      <c r="D15" s="87" t="n">
         <v>0.01</v>
       </c>
-      <c r="E15" s="70" t="n">
+      <c r="E15" s="72" t="n">
         <f aca="false">E14+0.0005</f>
         <v>0.0065</v>
       </c>
-      <c r="F15" s="71" t="n">
+      <c r="F15" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H15" s="24" t="n">
+      <c r="H15" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="I15" s="72" t="n">
+      <c r="I15" s="74" t="n">
         <f aca="false">I14</f>
         <v>0.003</v>
       </c>
-      <c r="J15" s="73" t="n">
+      <c r="J15" s="75" t="n">
         <f aca="false">I15</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="n">
+      <c r="A16" s="54" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="58" t="n">
+      <c r="B16" s="60" t="n">
         <f aca="false">B15</f>
         <v>0.98</v>
       </c>
-      <c r="C16" s="70" t="n">
+      <c r="C16" s="72" t="n">
         <v>0.011</v>
       </c>
-      <c r="D16" s="85" t="n">
+      <c r="D16" s="87" t="n">
         <v>0.015</v>
       </c>
-      <c r="E16" s="70" t="n">
+      <c r="E16" s="72" t="n">
         <f aca="false">E15+0.0005</f>
         <v>0.007</v>
       </c>
-      <c r="F16" s="71" t="n">
+      <c r="F16" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H16" s="24" t="n">
+      <c r="H16" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="I16" s="72" t="n">
+      <c r="I16" s="74" t="n">
         <f aca="false">I15</f>
         <v>0.003</v>
       </c>
-      <c r="J16" s="73" t="n">
+      <c r="J16" s="75" t="n">
         <f aca="false">I16</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="n">
+      <c r="A17" s="54" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="58" t="n">
+      <c r="B17" s="60" t="n">
         <f aca="false">B16</f>
         <v>0.98</v>
       </c>
-      <c r="C17" s="70" t="n">
+      <c r="C17" s="72" t="n">
         <v>0.012</v>
       </c>
-      <c r="D17" s="85" t="n">
+      <c r="D17" s="87" t="n">
         <v>0.02</v>
       </c>
-      <c r="E17" s="70" t="n">
+      <c r="E17" s="72" t="n">
         <f aca="false">E16+0.0005</f>
         <v>0.0075</v>
       </c>
-      <c r="F17" s="71" t="n">
+      <c r="F17" s="73" t="n">
         <v>0.05</v>
       </c>
-      <c r="H17" s="24" t="n">
+      <c r="H17" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="I17" s="72" t="n">
+      <c r="I17" s="74" t="n">
         <f aca="false">I16</f>
         <v>0.003</v>
       </c>
-      <c r="J17" s="73" t="n">
+      <c r="J17" s="75" t="n">
         <f aca="false">I17</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="n">
+      <c r="A18" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="67" t="n">
+      <c r="B18" s="69" t="n">
         <f aca="false">B17</f>
         <v>0.98</v>
       </c>
-      <c r="C18" s="86" t="n">
+      <c r="C18" s="88" t="n">
         <v>0.015</v>
       </c>
-      <c r="D18" s="83" t="n">
+      <c r="D18" s="85" t="n">
         <v>0.03</v>
       </c>
-      <c r="E18" s="86" t="n">
+      <c r="E18" s="88" t="n">
         <f aca="false">E17+0.0005</f>
         <v>0.008</v>
       </c>
-      <c r="F18" s="87" t="n">
+      <c r="F18" s="89" t="n">
         <v>0.05</v>
       </c>
-      <c r="H18" s="28" t="n">
+      <c r="H18" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="I18" s="88" t="n">
+      <c r="I18" s="90" t="n">
         <f aca="false">I17</f>
         <v>0.003</v>
       </c>
-      <c r="J18" s="89" t="n">
+      <c r="J18" s="91" t="n">
         <f aca="false">I18</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="58"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>181</v>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>183</v>
+      <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>184</v>
+      <c r="B22" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5813,434 +5846,434 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="17.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+    <row r="1" s="47" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="93" t="s">
         <v>188</v>
       </c>
+      <c r="C1" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" s="45" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90" t="s">
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" s="47" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="92" t="s">
+      <c r="B9" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="C9" s="93" t="s">
         <v>193</v>
       </c>
+      <c r="D9" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="92" t="s">
+      <c r="B18" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="E18" s="94" t="s">
         <v>198</v>
       </c>
+      <c r="F18" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="26" s="45" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="91" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="26" s="47" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="C26" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="92" t="s">
+      <c r="D26" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="E26" s="93" t="s">
         <v>205</v>
       </c>
+      <c r="F26" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="n">
+      <c r="A27" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="n">
+      <c r="A28" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="n">
+      <c r="A29" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="n">
+      <c r="A30" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="25"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="n">
+      <c r="A31" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="n">
+      <c r="A32" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="n">
+      <c r="A33" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="n">
+      <c r="A34" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="n">
+      <c r="A36" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="25"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="n">
+      <c r="A38" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="25"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="n">
+      <c r="A39" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="n">
+      <c r="A40" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="n">
+      <c r="A41" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="n">
+      <c r="A42" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="93" t="s">
-        <v>206</v>
+      <c r="A44" s="95" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="0" t="s">
-        <v>207</v>
+      <c r="I46" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="92" t="s">
+      <c r="A47" s="92" t="s">
         <v>211</v>
       </c>
+      <c r="B47" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="94" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="8" t="s">
-        <v>212</v>
+      <c r="A48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="25"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="25"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="25"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="25"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="25"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="25"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="25"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="25"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="25"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="25"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="E59" s="25"/>
+      <c r="A59" s="25"/>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/model_inputs.xlsx
+++ b/data/model_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Validation lists" sheetId="1" state="visible" r:id="rId3"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="224">
   <si>
     <t xml:space="preserve">Validation_Lists</t>
   </si>
@@ -176,22 +176,127 @@
     <t xml:space="preserve">Initial_Population</t>
   </si>
   <si>
+    <t xml:space="preserve">Fertility_Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonality_Curves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agegroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secular Trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 0-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 15-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 20-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 25-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 30-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 35-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 40-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 45-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age specific fertility rate: 50-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality_Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality infants F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality 1-4yr F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Household_Size</t>
   </si>
   <si>
-    <t xml:space="preserve">Fertility_Mortality_Rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seasonality_Curves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agegroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
+    <t xml:space="preserve">Mortality 5-9yr F</t>
   </si>
   <si>
     <t xml:space="preserve">Min</t>
@@ -206,129 +311,18 @@
     <t xml:space="preserve">Max</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secular Trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual birth rate male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fertility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 0-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb</t>
+    <t xml:space="preserve">Mortality 10-14yr F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality 15-19yr F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality 20-34yr F</t>
   </si>
   <si>
     <t xml:space="preserve">** Oromia 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Age specific fertility rate: 15-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 20-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 25-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 30-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 35-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 40-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 45-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age specific fertility rate: 50-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality infants F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 1-4yr F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 5-9yr F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 10-14yr F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 15-19yr F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 20-34yr F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mortality 35-49yr F</t>
   </si>
   <si>
@@ -341,36 +335,6 @@
     <t xml:space="preserve">Mortality 75+ F</t>
   </si>
   <si>
-    <t xml:space="preserve">Mortality infants M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 1-4yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 5-9yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 10-14yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 15-19yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 20-34yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 35-49yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 50-59yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 60-74yr M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality 75+ M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intervention_Resources</t>
   </si>
   <si>
@@ -408,9 +372,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
   </si>
   <si>
     <t xml:space="preserve">Start year</t>
@@ -801,15 +762,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="General"/>
-    <numFmt numFmtId="170" formatCode="0.00%"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="172" formatCode="0.00%"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -945,6 +908,41 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
@@ -967,27 +965,6 @@
       <left style="medium"/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -999,23 +976,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -1067,20 +1030,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1105,119 +1068,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1229,7 +1204,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1237,7 +1212,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1245,7 +1220,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1253,15 +1228,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1273,7 +1248,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1281,7 +1256,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1289,7 +1264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1309,7 +1284,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1321,7 +1296,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,19 +1304,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,15 +1328,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1369,11 +1344,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1381,83 +1356,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="12" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1871,111 +1846,111 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="46" t="s">
-        <v>216</v>
+      <c r="B2" s="49" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="46" t="s">
-        <v>217</v>
+      <c r="B3" s="49" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
-        <v>218</v>
+      <c r="B4" s="49" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="46"/>
+      <c r="B5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="96" t="s">
-        <v>220</v>
+      <c r="B7" s="99" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="96" t="s">
-        <v>221</v>
+      <c r="B9" s="99" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="96" t="s">
-        <v>222</v>
+      <c r="B10" s="99" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="96" t="s">
-        <v>223</v>
+      <c r="B11" s="99" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="96" t="s">
-        <v>224</v>
+      <c r="B12" s="99" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="96" t="s">
-        <v>226</v>
+      <c r="B15" s="99" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="96" t="s">
-        <v>227</v>
+      <c r="B17" s="99" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="96" t="s">
-        <v>228</v>
+      <c r="C18" s="99" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="96" t="s">
-        <v>229</v>
+      <c r="C19" s="99" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="96" t="s">
-        <v>230</v>
+      <c r="B20" s="99" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="96" t="s">
-        <v>231</v>
+      <c r="B21" s="99" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="96" t="s">
-        <v>232</v>
+      <c r="B23" s="99" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="96" t="s">
-        <v>233</v>
+      <c r="B26" s="99" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="96" t="s">
-        <v>234</v>
+      <c r="B27" s="99" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="96" t="s">
-        <v>235</v>
+      <c r="B28" s="99" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="96" t="s">
-        <v>236</v>
+      <c r="B29" s="99" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1994,17 +1969,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,1891 +1996,1691 @@
       <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="L1" s="1"/>
+      <c r="Q1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="0"/>
+      <c r="K2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="Q2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="B3" s="15" t="n">
+        <v>834602</v>
+      </c>
+      <c r="C3" s="16" t="n">
+        <v>827183</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0"/>
+      <c r="K3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7" t="n">
-        <v>834602</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>827183</v>
-      </c>
-      <c r="E3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H3" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="27" t="n">
+      <c r="L3" s="20" t="n">
         <v>0.0952769422030462</v>
       </c>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="n">
+      <c r="A4" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>801838</v>
       </c>
-      <c r="C4" s="26" t="n">
+      <c r="C4" s="22" t="n">
         <v>794437</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="27" t="n">
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="I4" s="19" t="n">
+        <v>0.977238972986109</v>
+      </c>
+      <c r="J4" s="0"/>
+      <c r="K4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="20" t="n">
         <v>0.0907598961572639</v>
       </c>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="n">
+      <c r="A5" s="21" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>771246</v>
       </c>
-      <c r="C5" s="26" t="n">
+      <c r="C5" s="22" t="n">
         <v>764347</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="P5" s="26" t="n">
-        <v>0.977238972986109</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="27" t="n">
+      <c r="E5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" s="18" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I5" s="19" t="n">
+        <v>0.996853533116784</v>
+      </c>
+      <c r="J5" s="0"/>
+      <c r="K5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="20" t="n">
         <v>0.0944080355768089</v>
       </c>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="n">
+      <c r="A6" s="21" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>744420</v>
       </c>
-      <c r="C6" s="26" t="n">
+      <c r="C6" s="22" t="n">
         <v>738873</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="P6" s="26" t="n">
-        <v>0.996853533116784</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="27" t="n">
+      <c r="E6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>0.959231602619851</v>
+      </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="20" t="n">
         <v>0.0816313061671976</v>
       </c>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="n">
+      <c r="A7" s="21" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>720646</v>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="C7" s="22" t="n">
         <v>717187</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="E7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="P7" s="26" t="n">
-        <v>0.959231602619851</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="27" t="n">
+      <c r="F7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I7" s="19" t="n">
+        <v>0.962663302199386</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="20" t="n">
         <v>0.0909412064901171</v>
       </c>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="n">
+      <c r="A8" s="21" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>698630</v>
       </c>
-      <c r="C8" s="26" t="n">
+      <c r="C8" s="22" t="n">
         <v>697766</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="E8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="M8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="P8" s="26" t="n">
-        <v>0.962663302199386</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="27" t="n">
+      <c r="G8" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="I8" s="19" t="n">
+        <v>0.95745816617066</v>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="20" t="n">
         <v>0.0894491065924884</v>
       </c>
+      <c r="Q8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="n">
+      <c r="A9" s="21" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>677081</v>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="22" t="n">
         <v>679087</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="P9" s="26" t="n">
-        <v>0.95745816617066</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="27" t="n">
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I9" s="19" t="n">
+        <v>0.959768654582646</v>
+      </c>
+      <c r="J9" s="0"/>
+      <c r="K9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="20" t="n">
         <v>0.0839092664088719</v>
       </c>
+      <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="n">
+      <c r="A10" s="21" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>654706</v>
       </c>
-      <c r="C10" s="26" t="n">
+      <c r="C10" s="22" t="n">
         <v>659624</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="P10" s="26" t="n">
-        <v>0.959768654582646</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="27" t="n">
+      <c r="E10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I10" s="19" t="n">
+        <v>0.924586731967597</v>
+      </c>
+      <c r="J10" s="0"/>
+      <c r="K10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="20" t="n">
         <v>0.0903769773496902</v>
       </c>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="n">
+      <c r="A11" s="21" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>630637</v>
       </c>
-      <c r="C11" s="26" t="n">
+      <c r="C11" s="22" t="n">
         <v>638295</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="P11" s="26" t="n">
-        <v>0.924586731967597</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="S11" s="27" t="n">
+      <c r="E11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0"/>
+      <c r="K11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="20" t="n">
         <v>0.0860651263285653</v>
       </c>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="n">
+      <c r="A12" s="21" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>605712</v>
       </c>
-      <c r="C12" s="26" t="n">
+      <c r="C12" s="22" t="n">
         <v>615781</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="27" t="n">
+      <c r="H12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="20" t="n">
         <v>0.0743172267903853</v>
       </c>
+      <c r="Q12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
+      <c r="A13" s="21" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>581191</v>
       </c>
-      <c r="C13" s="26" t="n">
+      <c r="C13" s="22" t="n">
         <v>593200</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>0.0703706495228</v>
-      </c>
-      <c r="P13" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="27" t="n">
+      <c r="H13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="20" t="n">
         <v>0.0757949300073362</v>
       </c>
+      <c r="Q13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
+      <c r="A14" s="21" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>558338</v>
       </c>
-      <c r="C14" s="26" t="n">
+      <c r="C14" s="22" t="n">
         <v>571674</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>0.00275</v>
-      </c>
-      <c r="P14" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="S14" s="30" t="n">
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="24" t="n">
         <v>0.047069979928229</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="n">
+      <c r="Q14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>538413</v>
       </c>
-      <c r="C15" s="26" t="n">
+      <c r="C15" s="22" t="n">
         <v>552323</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="P15" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="n">
+      <c r="F15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="0"/>
+      <c r="L15" s="1"/>
+      <c r="Q15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>522206</v>
       </c>
-      <c r="C16" s="26" t="n">
+      <c r="C16" s="22" t="n">
         <v>535867</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>0.00096</v>
-      </c>
-      <c r="P16" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="n">
+        <v>0.0703706495228</v>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>0.0703706495228</v>
+      </c>
+      <c r="J16" s="0"/>
+      <c r="L16" s="1"/>
+      <c r="Q16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="n">
+      <c r="A17" s="21" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>508619</v>
       </c>
-      <c r="C17" s="26" t="n">
+      <c r="C17" s="22" t="n">
         <v>521420</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="P17" s="26" t="n">
+      <c r="E17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="Q17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="n">
+      <c r="A18" s="21" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>496079</v>
       </c>
-      <c r="C18" s="26" t="n">
+      <c r="C18" s="22" t="n">
         <v>507698</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="E18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" s="18" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>0.00172</v>
-      </c>
-      <c r="P18" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="n">
+      <c r="A19" s="21" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>483015</v>
       </c>
-      <c r="C19" s="26" t="n">
+      <c r="C19" s="22" t="n">
         <v>493416</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>0.00461064301992153</v>
-      </c>
-      <c r="P19" s="26" t="n">
+      <c r="E19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <v>0.00096</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0.00096</v>
+      </c>
+      <c r="J19" s="0"/>
+      <c r="K19" s="29" t="n">
         <v>1</v>
       </c>
+      <c r="L19" s="30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M19" s="31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N19" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="n">
+      <c r="A20" s="21" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>467855</v>
       </c>
-      <c r="C20" s="26" t="n">
+      <c r="C20" s="22" t="n">
         <v>477286</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>0.0078380931338666</v>
-      </c>
-      <c r="P20" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H20" s="18" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="J20" s="0"/>
+      <c r="Q20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="n">
+      <c r="A21" s="21" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>449602</v>
       </c>
-      <c r="C21" s="26" t="n">
+      <c r="C21" s="22" t="n">
         <v>458544</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>0.0219466607748265</v>
-      </c>
-      <c r="P21" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H21" s="18" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="J21" s="0"/>
+      <c r="K21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="n">
+      <c r="A22" s="21" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>429550</v>
       </c>
-      <c r="C22" s="26" t="n">
+      <c r="C22" s="22" t="n">
         <v>438498</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="9" t="s">
+      <c r="E22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="M22" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>0.0862190244725326</v>
-      </c>
-      <c r="P22" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="G22" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="H22" s="18" t="n">
+        <v>0.00461064301992153</v>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>0.00629002247447884</v>
+      </c>
+      <c r="J22" s="0"/>
+      <c r="L22" s="1"/>
+      <c r="Q22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="n">
+      <c r="A23" s="21" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>409572</v>
       </c>
-      <c r="C23" s="26" t="n">
+      <c r="C23" s="22" t="n">
         <v>418976</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>0.0703706495228</v>
-      </c>
-      <c r="P23" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>0.0078380931338666</v>
+      </c>
+      <c r="I23" s="18" t="n">
+        <v>0.0119510427015098</v>
+      </c>
+      <c r="J23" s="0"/>
+      <c r="L23" s="1"/>
+      <c r="Q23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="n">
+      <c r="A24" s="21" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>391535</v>
       </c>
-      <c r="C24" s="26" t="n">
+      <c r="C24" s="22" t="n">
         <v>401808</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>0.00275</v>
-      </c>
-      <c r="P24" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" s="18" t="n">
+        <v>0.0219466607748265</v>
+      </c>
+      <c r="I24" s="18" t="n">
+        <v>0.0310727110239255</v>
+      </c>
+      <c r="J24" s="0"/>
+      <c r="L24" s="1"/>
+      <c r="Q24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="n">
+      <c r="A25" s="21" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>377311</v>
       </c>
-      <c r="C25" s="26" t="n">
+      <c r="C25" s="22" t="n">
         <v>388821</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="P25" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <v>0.0862190244725326</v>
+      </c>
+      <c r="I25" s="33" t="n">
+        <v>0.103974071503135</v>
+      </c>
+      <c r="J25" s="0"/>
+      <c r="L25" s="1"/>
+      <c r="Q25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="n">
+      <c r="A26" s="21" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>368084</v>
       </c>
-      <c r="C26" s="26" t="n">
+      <c r="C26" s="22" t="n">
         <v>381080</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>0.00096</v>
-      </c>
-      <c r="P26" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="H26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="L26" s="1"/>
+      <c r="Q26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="n">
+      <c r="A27" s="21" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>362291</v>
       </c>
-      <c r="C27" s="26" t="n">
+      <c r="C27" s="22" t="n">
         <v>376601</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="P27" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="0"/>
+      <c r="L27" s="1"/>
+      <c r="Q27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="n">
+      <c r="A28" s="21" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>357687</v>
       </c>
-      <c r="C28" s="26" t="n">
+      <c r="C28" s="22" t="n">
         <v>372636</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>0.00172</v>
-      </c>
-      <c r="P28" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="0"/>
+      <c r="L28" s="1"/>
+      <c r="Q28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="n">
+      <c r="A29" s="21" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>352023</v>
       </c>
-      <c r="C29" s="26" t="n">
+      <c r="C29" s="22" t="n">
         <v>366438</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="O29" s="1" t="n">
-        <v>0.00629002247447884</v>
-      </c>
-      <c r="P29" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="0"/>
+      <c r="L29" s="1"/>
+      <c r="Q29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="n">
+      <c r="A30" s="21" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>343054</v>
       </c>
-      <c r="C30" s="26" t="n">
+      <c r="C30" s="22" t="n">
         <v>355259</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>0.0119510427015098</v>
-      </c>
-      <c r="P30" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="0"/>
+      <c r="L30" s="1"/>
+      <c r="Q30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="n">
+      <c r="A31" s="21" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>329258</v>
       </c>
-      <c r="C31" s="26" t="n">
+      <c r="C31" s="22" t="n">
         <v>337318</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>0.0310727110239255</v>
-      </c>
-      <c r="P31" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="0"/>
+      <c r="L31" s="1"/>
+      <c r="Q31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="n">
+      <c r="A32" s="21" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>312015</v>
       </c>
-      <c r="C32" s="26" t="n">
+      <c r="C32" s="22" t="n">
         <v>314708</v>
       </c>
-      <c r="J32" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" s="31" t="n">
-        <v>75</v>
-      </c>
-      <c r="N32" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="O32" s="31" t="n">
-        <v>0.103974071503135</v>
-      </c>
-      <c r="P32" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="0"/>
+      <c r="L32" s="1"/>
+      <c r="Q32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="n">
+      <c r="A33" s="21" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>293433</v>
       </c>
-      <c r="C33" s="26" t="n">
+      <c r="C33" s="22" t="n">
         <v>290486</v>
       </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="n">
+      <c r="A34" s="21" t="n">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>275618</v>
       </c>
-      <c r="C34" s="26" t="n">
+      <c r="C34" s="22" t="n">
         <v>267712</v>
       </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="n">
+      <c r="A35" s="21" t="n">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>260676</v>
       </c>
-      <c r="C35" s="26" t="n">
+      <c r="C35" s="22" t="n">
         <v>249444</v>
       </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="n">
+      <c r="A36" s="21" t="n">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>250097</v>
       </c>
-      <c r="C36" s="26" t="n">
+      <c r="C36" s="22" t="n">
         <v>237852</v>
       </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="n">
+      <c r="A37" s="21" t="n">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>242902</v>
       </c>
-      <c r="C37" s="26" t="n">
+      <c r="C37" s="22" t="n">
         <v>231546</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="n">
+      <c r="A38" s="21" t="n">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>237494</v>
       </c>
-      <c r="C38" s="26" t="n">
+      <c r="C38" s="22" t="n">
         <v>228249</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="n">
+      <c r="A39" s="21" t="n">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>232277</v>
       </c>
-      <c r="C39" s="26" t="n">
+      <c r="C39" s="22" t="n">
         <v>225681</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="n">
+      <c r="A40" s="21" t="n">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>225655</v>
       </c>
-      <c r="C40" s="26" t="n">
+      <c r="C40" s="22" t="n">
         <v>221566</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="n">
+      <c r="A41" s="21" t="n">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>216461</v>
       </c>
-      <c r="C41" s="26" t="n">
+      <c r="C41" s="22" t="n">
         <v>214202</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="n">
+      <c r="A42" s="21" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>205251</v>
       </c>
-      <c r="C42" s="26" t="n">
+      <c r="C42" s="22" t="n">
         <v>204207</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="n">
+      <c r="A43" s="21" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>193012</v>
       </c>
-      <c r="C43" s="26" t="n">
+      <c r="C43" s="22" t="n">
         <v>192776</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28" t="n">
+      <c r="A44" s="21" t="n">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>180729</v>
       </c>
-      <c r="C44" s="26" t="n">
+      <c r="C44" s="22" t="n">
         <v>181102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="28" t="n">
+      <c r="A45" s="21" t="n">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>169388</v>
       </c>
-      <c r="C45" s="26" t="n">
+      <c r="C45" s="22" t="n">
         <v>170382</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="n">
+      <c r="A46" s="21" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>159755</v>
       </c>
-      <c r="C46" s="26" t="n">
+      <c r="C46" s="22" t="n">
         <v>161551</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28" t="n">
+      <c r="A47" s="21" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>151707</v>
       </c>
-      <c r="C47" s="26" t="n">
+      <c r="C47" s="22" t="n">
         <v>154511</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="n">
+      <c r="A48" s="21" t="n">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>144899</v>
       </c>
-      <c r="C48" s="26" t="n">
+      <c r="C48" s="22" t="n">
         <v>148905</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28" t="n">
+      <c r="A49" s="21" t="n">
         <v>46</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>138989</v>
       </c>
-      <c r="C49" s="26" t="n">
+      <c r="C49" s="22" t="n">
         <v>144377</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28" t="n">
+      <c r="A50" s="21" t="n">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>133631</v>
       </c>
-      <c r="C50" s="26" t="n">
+      <c r="C50" s="22" t="n">
         <v>140568</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28" t="n">
+      <c r="A51" s="21" t="n">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>128529</v>
       </c>
-      <c r="C51" s="26" t="n">
+      <c r="C51" s="22" t="n">
         <v>137140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="28" t="n">
+      <c r="A52" s="21" t="n">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>123571</v>
       </c>
-      <c r="C52" s="26" t="n">
+      <c r="C52" s="22" t="n">
         <v>133826</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28" t="n">
+      <c r="A53" s="21" t="n">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>118690</v>
       </c>
-      <c r="C53" s="26" t="n">
+      <c r="C53" s="22" t="n">
         <v>130377</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28" t="n">
+      <c r="A54" s="21" t="n">
         <v>51</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>113822</v>
       </c>
-      <c r="C54" s="26" t="n">
+      <c r="C54" s="22" t="n">
         <v>126542</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="28" t="n">
+      <c r="A55" s="21" t="n">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>108901</v>
       </c>
-      <c r="C55" s="26" t="n">
+      <c r="C55" s="22" t="n">
         <v>122074</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28" t="n">
+      <c r="A56" s="21" t="n">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>103899</v>
       </c>
-      <c r="C56" s="26" t="n">
+      <c r="C56" s="22" t="n">
         <v>116834</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28" t="n">
+      <c r="A57" s="21" t="n">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>98934</v>
       </c>
-      <c r="C57" s="26" t="n">
+      <c r="C57" s="22" t="n">
         <v>111137</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28" t="n">
+      <c r="A58" s="21" t="n">
         <v>55</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>94164</v>
       </c>
-      <c r="C58" s="26" t="n">
+      <c r="C58" s="22" t="n">
         <v>105408</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="n">
+      <c r="A59" s="21" t="n">
         <v>56</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>89744</v>
       </c>
-      <c r="C59" s="26" t="n">
+      <c r="C59" s="22" t="n">
         <v>100073</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="n">
+      <c r="A60" s="21" t="n">
         <v>57</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>85832</v>
       </c>
-      <c r="C60" s="26" t="n">
+      <c r="C60" s="22" t="n">
         <v>95557</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28" t="n">
+      <c r="A61" s="21" t="n">
         <v>58</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>82523</v>
       </c>
-      <c r="C61" s="26" t="n">
+      <c r="C61" s="22" t="n">
         <v>92149</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="n">
+      <c r="A62" s="21" t="n">
         <v>59</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>79684</v>
       </c>
-      <c r="C62" s="26" t="n">
+      <c r="C62" s="22" t="n">
         <v>89582</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28" t="n">
+      <c r="A63" s="21" t="n">
         <v>60</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>77118</v>
       </c>
-      <c r="C63" s="26" t="n">
+      <c r="C63" s="22" t="n">
         <v>87452</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28" t="n">
+      <c r="A64" s="21" t="n">
         <v>61</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>74631</v>
       </c>
-      <c r="C64" s="26" t="n">
+      <c r="C64" s="22" t="n">
         <v>85353</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
+      <c r="A65" s="21" t="n">
         <v>62</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>72029</v>
       </c>
-      <c r="C65" s="26" t="n">
+      <c r="C65" s="22" t="n">
         <v>82882</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28" t="n">
+      <c r="A66" s="21" t="n">
         <v>63</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>69151</v>
       </c>
-      <c r="C66" s="26" t="n">
+      <c r="C66" s="22" t="n">
         <v>79735</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28" t="n">
+      <c r="A67" s="21" t="n">
         <v>64</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>65975</v>
       </c>
-      <c r="C67" s="26" t="n">
+      <c r="C67" s="22" t="n">
         <v>76005</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="n">
+      <c r="A68" s="21" t="n">
         <v>65</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>62514</v>
       </c>
-      <c r="C68" s="26" t="n">
+      <c r="C68" s="22" t="n">
         <v>71890</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="n">
+      <c r="A69" s="21" t="n">
         <v>66</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>58780</v>
       </c>
-      <c r="C69" s="26" t="n">
+      <c r="C69" s="22" t="n">
         <v>67584</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="n">
+      <c r="A70" s="21" t="n">
         <v>67</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>54785</v>
       </c>
-      <c r="C70" s="26" t="n">
+      <c r="C70" s="22" t="n">
         <v>63282</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28" t="n">
+      <c r="A71" s="21" t="n">
         <v>68</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>50562</v>
       </c>
-      <c r="C71" s="26" t="n">
+      <c r="C71" s="22" t="n">
         <v>59137</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="28" t="n">
+      <c r="A72" s="21" t="n">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>46216</v>
       </c>
-      <c r="C72" s="26" t="n">
+      <c r="C72" s="22" t="n">
         <v>55130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="n">
+      <c r="A73" s="21" t="n">
         <v>70</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>41874</v>
       </c>
-      <c r="C73" s="26" t="n">
+      <c r="C73" s="22" t="n">
         <v>51201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
+      <c r="A74" s="21" t="n">
         <v>71</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>37660</v>
       </c>
-      <c r="C74" s="26" t="n">
+      <c r="C74" s="22" t="n">
         <v>47288</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
+      <c r="A75" s="21" t="n">
         <v>72</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>33699</v>
       </c>
-      <c r="C75" s="26" t="n">
+      <c r="C75" s="22" t="n">
         <v>43329</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28" t="n">
+      <c r="A76" s="21" t="n">
         <v>73</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>30090</v>
       </c>
-      <c r="C76" s="26" t="n">
+      <c r="C76" s="22" t="n">
         <v>39294</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="28" t="n">
+      <c r="A77" s="21" t="n">
         <v>74</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>26818</v>
       </c>
-      <c r="C77" s="26" t="n">
+      <c r="C77" s="22" t="n">
         <v>35276</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="28" t="n">
+      <c r="A78" s="21" t="n">
         <v>75</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>23842</v>
       </c>
-      <c r="C78" s="26" t="n">
+      <c r="C78" s="22" t="n">
         <v>31397</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28" t="n">
+      <c r="A79" s="21" t="n">
         <v>76</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>21118</v>
       </c>
-      <c r="C79" s="26" t="n">
+      <c r="C79" s="22" t="n">
         <v>27782</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="28" t="n">
+      <c r="A80" s="21" t="n">
         <v>77</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>18606</v>
       </c>
-      <c r="C80" s="26" t="n">
+      <c r="C80" s="22" t="n">
         <v>24554</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28" t="n">
+      <c r="A81" s="21" t="n">
         <v>78</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>16271</v>
       </c>
-      <c r="C81" s="26" t="n">
+      <c r="C81" s="22" t="n">
         <v>21797</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="28" t="n">
+      <c r="A82" s="21" t="n">
         <v>79</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>14114</v>
       </c>
-      <c r="C82" s="26" t="n">
+      <c r="C82" s="22" t="n">
         <v>19444</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="28" t="n">
+      <c r="A83" s="21" t="n">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>12141</v>
       </c>
-      <c r="C83" s="26" t="n">
+      <c r="C83" s="22" t="n">
         <v>17388</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="28" t="n">
+      <c r="A84" s="21" t="n">
         <v>81</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>10360</v>
       </c>
-      <c r="C84" s="26" t="n">
+      <c r="C84" s="22" t="n">
         <v>15525</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="28" t="n">
+      <c r="A85" s="21" t="n">
         <v>82</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>8779</v>
       </c>
-      <c r="C85" s="26" t="n">
+      <c r="C85" s="22" t="n">
         <v>13747</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="28" t="n">
+      <c r="A86" s="21" t="n">
         <v>83</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>7401</v>
       </c>
-      <c r="C86" s="26" t="n">
+      <c r="C86" s="22" t="n">
         <v>11973</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="28" t="n">
+      <c r="A87" s="21" t="n">
         <v>84</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>6203</v>
       </c>
-      <c r="C87" s="26" t="n">
+      <c r="C87" s="22" t="n">
         <v>10223</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="28" t="n">
+      <c r="A88" s="21" t="n">
         <v>85</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>5160</v>
       </c>
-      <c r="C88" s="26" t="n">
+      <c r="C88" s="22" t="n">
         <v>8541</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="28" t="n">
+      <c r="A89" s="21" t="n">
         <v>86</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>4244</v>
       </c>
-      <c r="C89" s="26" t="n">
+      <c r="C89" s="22" t="n">
         <v>6971</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="28" t="n">
+      <c r="A90" s="21" t="n">
         <v>87</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>3429</v>
       </c>
-      <c r="C90" s="26" t="n">
+      <c r="C90" s="22" t="n">
         <v>5557</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="28" t="n">
+      <c r="A91" s="21" t="n">
         <v>88</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>2694</v>
       </c>
-      <c r="C91" s="26" t="n">
+      <c r="C91" s="22" t="n">
         <v>4334</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="28" t="n">
+      <c r="A92" s="21" t="n">
         <v>89</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="C92" s="26" t="n">
+      <c r="C92" s="22" t="n">
         <v>3298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="28" t="n">
+      <c r="A93" s="21" t="n">
         <v>90</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>1475</v>
       </c>
-      <c r="C93" s="26" t="n">
+      <c r="C93" s="22" t="n">
         <v>2439</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="28" t="n">
+      <c r="A94" s="21" t="n">
         <v>91</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="C94" s="26" t="n">
+      <c r="C94" s="22" t="n">
         <v>1744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="28" t="n">
+      <c r="A95" s="21" t="n">
         <v>92</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>639</v>
       </c>
-      <c r="C95" s="26" t="n">
+      <c r="C95" s="22" t="n">
         <v>1201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="28" t="n">
+      <c r="A96" s="21" t="n">
         <v>93</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="C96" s="26" t="n">
+      <c r="C96" s="22" t="n">
         <v>797</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="28" t="n">
+      <c r="A97" s="21" t="n">
         <v>94</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="C97" s="26" t="n">
+      <c r="C97" s="22" t="n">
         <v>511</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="28" t="n">
+      <c r="A98" s="21" t="n">
         <v>95</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="C98" s="26" t="n">
+      <c r="C98" s="22" t="n">
         <v>322</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="28" t="n">
+      <c r="A99" s="21" t="n">
         <v>96</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C99" s="26" t="n">
+      <c r="C99" s="22" t="n">
         <v>206</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="28" t="n">
+      <c r="A100" s="21" t="n">
         <v>97</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C100" s="26" t="n">
+      <c r="C100" s="22" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="28" t="n">
+      <c r="A101" s="21" t="n">
         <v>98</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C101" s="26" t="n">
+      <c r="C101" s="22" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="28" t="n">
+      <c r="A102" s="21" t="n">
         <v>99</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C102" s="26" t="n">
+      <c r="C102" s="22" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="33" t="n">
+      <c r="A103" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="B103" s="31" t="n">
+      <c r="B103" s="34" t="n">
         <v>50</v>
       </c>
-      <c r="C103" s="32" t="n">
+      <c r="C103" s="35" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3938,45 +3718,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>105</v>
+      <c r="G2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,31 +3766,31 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="36" t="n">
+      <c r="K3" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="37" t="n">
+      <c r="L3" s="40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,29 +3801,29 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="36" t="n">
+      <c r="J4" s="22"/>
+      <c r="K4" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="37" t="n">
+      <c r="L4" s="40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4054,31 +3834,31 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="36" t="n">
+      <c r="K5" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="37" t="n">
+      <c r="L5" s="40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,29 +3869,29 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="36" t="n">
+      <c r="J6" s="22"/>
+      <c r="K6" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="37" t="n">
+      <c r="L6" s="40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4122,29 +3902,29 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="36" t="n">
+      <c r="J7" s="22"/>
+      <c r="K7" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="37" t="n">
+      <c r="L7" s="40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4155,29 +3935,29 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="38" t="n">
+      <c r="J8" s="35"/>
+      <c r="K8" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="39" t="n">
+      <c r="L8" s="42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,24 +3968,24 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,20 +4018,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>108</v>
+      <c r="B2" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2025</v>
@@ -4260,7 +4040,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12</v>
@@ -4268,17 +4048,17 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="41" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,9 +4078,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4313,310 +4093,312 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>122</v>
+      <c r="B2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="42" t="n">
+      <c r="D3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="42" t="n">
+      <c r="F3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="G3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="42" t="n">
+      <c r="C4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="G4" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="43" t="n">
+      <c r="I4" s="46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="42" t="n">
+      <c r="C5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="42" t="n">
+      <c r="D5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="42" t="n">
+      <c r="E5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="42" t="n">
+      <c r="F5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="42" t="n">
+      <c r="G5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="42" t="n">
+      <c r="H5" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="43" t="n">
+      <c r="I5" s="46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="44" t="n">
+      <c r="C6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="44" t="n">
+      <c r="D6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="44" t="n">
+      <c r="F6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="44" t="n">
+      <c r="G6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="44" t="n">
+      <c r="H6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="46" t="s">
-        <v>123</v>
+      <c r="B8" s="49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" s="47" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>132</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="50" t="n">
+      <c r="C15" s="53" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="51" t="n">
+      <c r="D15" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="42" t="n">
+      <c r="E15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="G15" s="52" t="n">
+      <c r="G15" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="H15" s="53" t="n">
+      <c r="H15" s="56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="42" t="n">
+      <c r="C16" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="54" t="n">
+      <c r="D16" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="42" t="n">
+      <c r="E16" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="52" t="n">
+      <c r="G16" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="H16" s="55" t="n">
+      <c r="H16" s="58" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="42" t="n">
+      <c r="C17" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="54" t="n">
+      <c r="D17" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="42" t="n">
+      <c r="E17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="52" t="n">
+      <c r="G17" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="H17" s="55" t="n">
+      <c r="H17" s="58" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="42" t="n">
+      <c r="C18" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="54" t="n">
+      <c r="D18" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="42" t="n">
+      <c r="E18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="52" t="n">
+      <c r="G18" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="H18" s="55" t="n">
+      <c r="H18" s="58" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="44" t="n">
+      <c r="C19" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="D19" s="56" t="n">
+      <c r="D19" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="44" t="n">
+      <c r="E19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="47" t="n">
         <v>12</v>
       </c>
-      <c r="G19" s="57" t="n">
+      <c r="G19" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="H19" s="58" t="n">
+      <c r="H19" s="61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="46" t="s">
-        <v>134</v>
+      <c r="B21" s="49" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4654,244 +4436,246 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" s="47" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>145</v>
+      <c r="B2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="62" t="n">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="60" t="n">
+      <c r="F3" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="G3" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="61" t="n">
+      <c r="H3" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I3" s="37" t="n">
+      <c r="I3" s="40" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="62" t="n">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="62" t="n">
+      <c r="F4" s="65" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" s="61" t="n">
+      <c r="G4" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="61" t="n">
+      <c r="H4" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="40" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="62" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="60" t="n">
+      <c r="F5" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="61" t="n">
+      <c r="G5" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="61" t="n">
+      <c r="H5" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="40" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="62" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="62" t="n">
+      <c r="F6" s="65" t="n">
         <v>0.5</v>
       </c>
-      <c r="G6" s="61" t="n">
+      <c r="G6" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="61" t="n">
+      <c r="H6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="37" t="n">
+      <c r="I6" s="40" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="6" t="n">
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="62" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="62" t="n">
+      <c r="F7" s="65" t="n">
         <v>0.6</v>
       </c>
-      <c r="G7" s="61" t="n">
+      <c r="G7" s="64" t="n">
         <v>12</v>
       </c>
-      <c r="H7" s="61" t="n">
+      <c r="H7" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="37" t="n">
+      <c r="I7" s="40" t="n">
         <f aca="false">3*30</f>
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="31" t="n">
+      <c r="B8" s="34" t="n">
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
-      <c r="C8" s="63" t="n">
+      <c r="C8" s="66" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="64" t="n">
+      <c r="F8" s="67" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" s="65" t="n">
+      <c r="G8" s="68" t="n">
         <v>12</v>
       </c>
-      <c r="H8" s="65" t="n">
+      <c r="H8" s="68" t="n">
         <v>0.75</v>
       </c>
-      <c r="I8" s="39" t="n">
+      <c r="I8" s="42" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="10" s="47" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>152</v>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="66" t="s">
-        <v>155</v>
+      <c r="F15" s="69" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4927,192 +4711,198 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="71" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="65" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E4" s="71" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="65" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="71" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="65" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E8" s="71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="67" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="73" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="74" t="s">
         <v>156</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" s="47" customFormat="true" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="62" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="68" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="62" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E4" s="68" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="62" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="68" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="62" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="62" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="E8" s="68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="64" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E9" s="70" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" s="47" customFormat="true" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="71" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5137,7 +4927,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5154,677 +4944,677 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>179</v>
+      <c r="F2" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="n">
+      <c r="A3" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="60" t="n">
+      <c r="B3" s="63" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="72" t="n">
+      <c r="C3" s="75" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D3" s="60" t="n">
+      <c r="D3" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="72" t="n">
+      <c r="E3" s="75" t="n">
         <v>0.0005</v>
       </c>
-      <c r="F3" s="73" t="n">
+      <c r="F3" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="74" t="n">
+      <c r="I3" s="77" t="n">
         <v>0.04</v>
       </c>
-      <c r="J3" s="75" t="n">
+      <c r="J3" s="78" t="n">
         <f aca="false">I3</f>
         <v>0.04</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="76" t="n">
+      <c r="M3" s="79" t="n">
         <f aca="false">0.07</f>
         <v>0.07</v>
       </c>
-      <c r="N3" s="77" t="n">
+      <c r="N3" s="80" t="n">
         <v>0.025</v>
       </c>
-      <c r="O3" s="78" t="n">
+      <c r="O3" s="81" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="n">
+      <c r="A4" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="n">
+      <c r="B4" s="63" t="n">
         <v>0.7</v>
       </c>
-      <c r="C4" s="72" t="n">
+      <c r="C4" s="75" t="n">
         <f aca="false">C3+0.0005</f>
         <v>0.001</v>
       </c>
-      <c r="D4" s="60" t="n">
+      <c r="D4" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="72" t="n">
+      <c r="E4" s="75" t="n">
         <f aca="false">E3+0.0005</f>
         <v>0.001</v>
       </c>
-      <c r="F4" s="73" t="n">
+      <c r="F4" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="n">
+      <c r="I4" s="77" t="n">
         <v>0.02</v>
       </c>
-      <c r="J4" s="75" t="n">
+      <c r="J4" s="78" t="n">
         <f aca="false">I4</f>
         <v>0.02</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="79" t="n">
+      <c r="M4" s="82" t="n">
         <f aca="false">0.5</f>
         <v>0.5</v>
       </c>
-      <c r="N4" s="80" t="n">
+      <c r="N4" s="83" t="n">
         <f aca="false">M4/2</f>
         <v>0.25</v>
       </c>
-      <c r="O4" s="81" t="n">
+      <c r="O4" s="84" t="n">
         <f aca="false">N4/2</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="n">
+      <c r="A5" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="60" t="n">
+      <c r="B5" s="63" t="n">
         <v>0.75</v>
       </c>
-      <c r="C5" s="72" t="n">
+      <c r="C5" s="75" t="n">
         <f aca="false">C4+0.0005</f>
         <v>0.0015</v>
       </c>
-      <c r="D5" s="60" t="n">
+      <c r="D5" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="72" t="n">
+      <c r="E5" s="75" t="n">
         <f aca="false">E4+0.0005</f>
         <v>0.0015</v>
       </c>
-      <c r="F5" s="73" t="n">
+      <c r="F5" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="74" t="n">
+      <c r="I5" s="77" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="75" t="n">
+      <c r="J5" s="78" t="n">
         <f aca="false">I5</f>
         <v>0.01</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="82" t="n">
+      <c r="M5" s="85" t="n">
         <f aca="false">0.4</f>
         <v>0.4</v>
       </c>
-      <c r="N5" s="83" t="n">
+      <c r="N5" s="86" t="n">
         <f aca="false">M5/2</f>
         <v>0.2</v>
       </c>
-      <c r="O5" s="84" t="n">
+      <c r="O5" s="87" t="n">
         <f aca="false">N5/2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="n">
+      <c r="A6" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="n">
+      <c r="B6" s="63" t="n">
         <v>0.8</v>
       </c>
-      <c r="C6" s="72" t="n">
+      <c r="C6" s="75" t="n">
         <f aca="false">C5+0.0005</f>
         <v>0.002</v>
       </c>
-      <c r="D6" s="60" t="n">
+      <c r="D6" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="72" t="n">
+      <c r="E6" s="75" t="n">
         <f aca="false">E5+0.0005</f>
         <v>0.002</v>
       </c>
-      <c r="F6" s="73" t="n">
+      <c r="F6" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="74" t="n">
+      <c r="I6" s="77" t="n">
         <v>0.005</v>
       </c>
-      <c r="J6" s="75" t="n">
+      <c r="J6" s="78" t="n">
         <f aca="false">I6</f>
         <v>0.005</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="n">
+      <c r="A7" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="60" t="n">
+      <c r="B7" s="63" t="n">
         <v>0.9</v>
       </c>
-      <c r="C7" s="72" t="n">
+      <c r="C7" s="75" t="n">
         <f aca="false">C6+0.0005</f>
         <v>0.0025</v>
       </c>
-      <c r="D7" s="60" t="n">
+      <c r="D7" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="72" t="n">
+      <c r="E7" s="75" t="n">
         <f aca="false">E6+0.0005</f>
         <v>0.0025</v>
       </c>
-      <c r="F7" s="73" t="n">
+      <c r="F7" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="74" t="n">
+      <c r="I7" s="77" t="n">
         <f aca="false">I6</f>
         <v>0.005</v>
       </c>
-      <c r="J7" s="75" t="n">
+      <c r="J7" s="78" t="n">
         <f aca="false">I7</f>
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="n">
+      <c r="A8" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="60" t="n">
+      <c r="B8" s="63" t="n">
         <v>0.98</v>
       </c>
-      <c r="C8" s="72" t="n">
+      <c r="C8" s="75" t="n">
         <f aca="false">C7+0.0005</f>
         <v>0.003</v>
       </c>
-      <c r="D8" s="60" t="n">
+      <c r="D8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="72" t="n">
+      <c r="E8" s="75" t="n">
         <f aca="false">E7+0.0005</f>
         <v>0.003</v>
       </c>
-      <c r="F8" s="73" t="n">
+      <c r="F8" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="74" t="n">
+      <c r="I8" s="77" t="n">
         <f aca="false">I7</f>
         <v>0.005</v>
       </c>
-      <c r="J8" s="75" t="n">
+      <c r="J8" s="78" t="n">
         <f aca="false">I8</f>
         <v>0.005</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>180</v>
+      <c r="L8" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="n">
+      <c r="A9" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="60" t="n">
+      <c r="B9" s="63" t="n">
         <f aca="false">B8</f>
         <v>0.98</v>
       </c>
-      <c r="C9" s="72" t="n">
+      <c r="C9" s="75" t="n">
         <f aca="false">C8+0.0005</f>
         <v>0.0035</v>
       </c>
-      <c r="D9" s="60" t="n">
+      <c r="D9" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="72" t="n">
+      <c r="E9" s="75" t="n">
         <f aca="false">E8+0.0005</f>
         <v>0.0035</v>
       </c>
-      <c r="F9" s="73" t="n">
+      <c r="F9" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="74" t="n">
+      <c r="I9" s="77" t="n">
         <v>0.003</v>
       </c>
-      <c r="J9" s="75" t="n">
+      <c r="J9" s="78" t="n">
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
-      <c r="L9" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>182</v>
+      <c r="L9" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="n">
+      <c r="A10" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="60" t="n">
+      <c r="B10" s="63" t="n">
         <f aca="false">B9</f>
         <v>0.98</v>
       </c>
-      <c r="C10" s="72" t="n">
+      <c r="C10" s="75" t="n">
         <f aca="false">C9+0.0005</f>
         <v>0.004</v>
       </c>
-      <c r="D10" s="60" t="n">
+      <c r="D10" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="72" t="n">
+      <c r="E10" s="75" t="n">
         <f aca="false">E9+0.0005</f>
         <v>0.004</v>
       </c>
-      <c r="F10" s="73" t="n">
+      <c r="F10" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="I10" s="74" t="n">
+      <c r="I10" s="77" t="n">
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
-      <c r="J10" s="75" t="n">
+      <c r="J10" s="78" t="n">
         <f aca="false">I10</f>
         <v>0.003</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="85" t="n">
+      <c r="M10" s="88" t="n">
         <v>0.01</v>
       </c>
-      <c r="N10" s="86" t="n">
+      <c r="N10" s="89" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="n">
+      <c r="A11" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="60" t="n">
+      <c r="B11" s="63" t="n">
         <f aca="false">B10</f>
         <v>0.98</v>
       </c>
-      <c r="C11" s="72" t="n">
+      <c r="C11" s="75" t="n">
         <f aca="false">C10+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D11" s="60" t="n">
+      <c r="D11" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="72" t="n">
+      <c r="E11" s="75" t="n">
         <f aca="false">E10+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="F11" s="73" t="n">
+      <c r="F11" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="74" t="n">
+      <c r="I11" s="77" t="n">
         <f aca="false">I10</f>
         <v>0.003</v>
       </c>
-      <c r="J11" s="75" t="n">
+      <c r="J11" s="78" t="n">
         <f aca="false">I11</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="n">
+      <c r="A12" s="57" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="60" t="n">
+      <c r="B12" s="63" t="n">
         <f aca="false">B11</f>
         <v>0.98</v>
       </c>
-      <c r="C12" s="72" t="n">
+      <c r="C12" s="75" t="n">
         <f aca="false">C11+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D12" s="60" t="n">
+      <c r="D12" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="72" t="n">
+      <c r="E12" s="75" t="n">
         <f aca="false">E11+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="F12" s="73" t="n">
+      <c r="F12" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="74" t="n">
+      <c r="I12" s="77" t="n">
         <f aca="false">I11</f>
         <v>0.003</v>
       </c>
-      <c r="J12" s="75" t="n">
+      <c r="J12" s="78" t="n">
         <f aca="false">I12</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="n">
+      <c r="A13" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="60" t="n">
+      <c r="B13" s="63" t="n">
         <f aca="false">B12</f>
         <v>0.98</v>
       </c>
-      <c r="C13" s="72" t="n">
+      <c r="C13" s="75" t="n">
         <f aca="false">C12+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D13" s="60" t="n">
+      <c r="D13" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="72" t="n">
+      <c r="E13" s="75" t="n">
         <f aca="false">E12+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="F13" s="73" t="n">
+      <c r="F13" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="74" t="n">
+      <c r="I13" s="77" t="n">
         <f aca="false">I12</f>
         <v>0.003</v>
       </c>
-      <c r="J13" s="75" t="n">
+      <c r="J13" s="78" t="n">
         <f aca="false">I13</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="n">
+      <c r="A14" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="60" t="n">
+      <c r="B14" s="63" t="n">
         <f aca="false">B13</f>
         <v>0.98</v>
       </c>
-      <c r="C14" s="72" t="n">
+      <c r="C14" s="75" t="n">
         <f aca="false">C13+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D14" s="60" t="n">
+      <c r="D14" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="72" t="n">
+      <c r="E14" s="75" t="n">
         <f aca="false">E13+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="F14" s="73" t="n">
+      <c r="F14" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="I14" s="74" t="n">
+      <c r="I14" s="77" t="n">
         <f aca="false">I13</f>
         <v>0.003</v>
       </c>
-      <c r="J14" s="75" t="n">
+      <c r="J14" s="78" t="n">
         <f aca="false">I14</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="n">
+      <c r="A15" s="57" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="60" t="n">
+      <c r="B15" s="63" t="n">
         <f aca="false">B14</f>
         <v>0.98</v>
       </c>
-      <c r="C15" s="72" t="n">
+      <c r="C15" s="75" t="n">
         <v>0.01</v>
       </c>
-      <c r="D15" s="87" t="n">
+      <c r="D15" s="90" t="n">
         <v>0.01</v>
       </c>
-      <c r="E15" s="72" t="n">
+      <c r="E15" s="75" t="n">
         <f aca="false">E14+0.0005</f>
         <v>0.0065</v>
       </c>
-      <c r="F15" s="73" t="n">
+      <c r="F15" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="I15" s="74" t="n">
+      <c r="I15" s="77" t="n">
         <f aca="false">I14</f>
         <v>0.003</v>
       </c>
-      <c r="J15" s="75" t="n">
+      <c r="J15" s="78" t="n">
         <f aca="false">I15</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="n">
+      <c r="A16" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="60" t="n">
+      <c r="B16" s="63" t="n">
         <f aca="false">B15</f>
         <v>0.98</v>
       </c>
-      <c r="C16" s="72" t="n">
+      <c r="C16" s="75" t="n">
         <v>0.011</v>
       </c>
-      <c r="D16" s="87" t="n">
+      <c r="D16" s="90" t="n">
         <v>0.015</v>
       </c>
-      <c r="E16" s="72" t="n">
+      <c r="E16" s="75" t="n">
         <f aca="false">E15+0.0005</f>
         <v>0.007</v>
       </c>
-      <c r="F16" s="73" t="n">
+      <c r="F16" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="I16" s="74" t="n">
+      <c r="I16" s="77" t="n">
         <f aca="false">I15</f>
         <v>0.003</v>
       </c>
-      <c r="J16" s="75" t="n">
+      <c r="J16" s="78" t="n">
         <f aca="false">I16</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="n">
+      <c r="A17" s="57" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="60" t="n">
+      <c r="B17" s="63" t="n">
         <f aca="false">B16</f>
         <v>0.98</v>
       </c>
-      <c r="C17" s="72" t="n">
+      <c r="C17" s="75" t="n">
         <v>0.012</v>
       </c>
-      <c r="D17" s="87" t="n">
+      <c r="D17" s="90" t="n">
         <v>0.02</v>
       </c>
-      <c r="E17" s="72" t="n">
+      <c r="E17" s="75" t="n">
         <f aca="false">E16+0.0005</f>
         <v>0.0075</v>
       </c>
-      <c r="F17" s="73" t="n">
+      <c r="F17" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I17" s="74" t="n">
+      <c r="I17" s="77" t="n">
         <f aca="false">I16</f>
         <v>0.003</v>
       </c>
-      <c r="J17" s="75" t="n">
+      <c r="J17" s="78" t="n">
         <f aca="false">I17</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56" t="n">
+      <c r="A18" s="59" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="69" t="n">
+      <c r="B18" s="72" t="n">
         <f aca="false">B17</f>
         <v>0.98</v>
       </c>
-      <c r="C18" s="88" t="n">
+      <c r="C18" s="91" t="n">
         <v>0.015</v>
       </c>
-      <c r="D18" s="85" t="n">
+      <c r="D18" s="88" t="n">
         <v>0.03</v>
       </c>
-      <c r="E18" s="88" t="n">
+      <c r="E18" s="91" t="n">
         <f aca="false">E17+0.0005</f>
         <v>0.008</v>
       </c>
-      <c r="F18" s="89" t="n">
+      <c r="F18" s="92" t="n">
         <v>0.05</v>
       </c>
-      <c r="H18" s="29" t="n">
+      <c r="H18" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="I18" s="90" t="n">
+      <c r="I18" s="93" t="n">
         <f aca="false">I17</f>
         <v>0.003</v>
       </c>
-      <c r="J18" s="91" t="n">
+      <c r="J18" s="94" t="n">
         <f aca="false">I18</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="60"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5855,425 +5645,436 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="17.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="47" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
+    <row r="1" s="50" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" s="50" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="93" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="C26" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="D26" s="95" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="E26" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="17"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="17"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="17"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="17"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="17"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="17"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="17"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="17"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="17"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="17"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="17"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="17"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="47"/>
-    </row>
-    <row r="9" s="47" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="47" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="17"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="17"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="98" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="26" s="47" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="25"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="25"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="25"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="25"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="n">
-        <v>13</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="25"/>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="n">
-        <v>14</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="n">
-        <v>15</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="95" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I46" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="94" t="s">
-        <v>214</v>
+      <c r="A47" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="97" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="9" t="s">
-        <v>215</v>
+      <c r="A48" s="17"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="17"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="17"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="17"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="17"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="17"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="17"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="17"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="17"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="17"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="17"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="17"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/model_inputs.xlsx
+++ b/data/model_inputs.xlsx
@@ -9,9 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="Validation lists" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Demographics" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Health system contact" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="General model parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="General model parameters" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Demographics" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Health system contact" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="System constraints" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="Need &amp; demand" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Diseases" sheetId="7" state="visible" r:id="rId9"/>
@@ -173,6 +173,30 @@
     <t xml:space="preserve">HPV vaccine 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Model_Pars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population scale factor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Initial_Population</t>
   </si>
   <si>
@@ -200,9 +224,6 @@
     <t xml:space="preserve">Age End</t>
   </si>
   <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secular Trend</t>
   </si>
   <si>
@@ -366,27 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve">Overhead time (mins)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model_Pars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population scale factor</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly_Hours_ByCadre</t>
@@ -764,11 +764,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0%"/>
     <numFmt numFmtId="171" formatCode="General"/>
     <numFmt numFmtId="172" formatCode="0.00%"/>
@@ -1030,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1056,6 +1056,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,15 +1124,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,7 +1148,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1176,7 +1184,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1213,14 +1221,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1969,9 +1969,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1988,68 +2061,68 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="H1" s="0"/>
       <c r="J1" s="0"/>
-      <c r="K1" s="6" t="s">
-        <v>31</v>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="L1" s="1"/>
       <c r="Q1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>39</v>
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="J2" s="0"/>
-      <c r="K2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>41</v>
+      <c r="K2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="Q2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="15" t="n">
+      <c r="A3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="17" t="n">
         <v>834602</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="18" t="n">
         <v>827183</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>43</v>
+      <c r="E3" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0</v>
@@ -2057,33 +2130,33 @@
       <c r="G3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="n">
+      <c r="H3" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="19" t="n">
+      <c r="I3" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="0"/>
-      <c r="K3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="20" t="n">
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="22" t="n">
         <v>0.0952769422030462</v>
       </c>
       <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="23" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>801838</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="24" t="n">
         <v>794437</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>45</v>
+      <c r="E4" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>15</v>
@@ -2091,33 +2164,33 @@
       <c r="G4" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="20" t="n">
         <v>0.089</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I4" s="21" t="n">
         <v>0.977238972986109</v>
       </c>
       <c r="J4" s="0"/>
-      <c r="K4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="20" t="n">
+      <c r="K4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="22" t="n">
         <v>0.0907598961572639</v>
       </c>
       <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="23" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>771246</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="24" t="n">
         <v>764347</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>47</v>
+      <c r="E5" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>20</v>
@@ -2125,33 +2198,33 @@
       <c r="G5" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H5" s="18" t="n">
+      <c r="H5" s="20" t="n">
         <v>0.235</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="21" t="n">
         <v>0.996853533116784</v>
       </c>
       <c r="J5" s="0"/>
-      <c r="K5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="20" t="n">
+      <c r="K5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="22" t="n">
         <v>0.0944080355768089</v>
       </c>
       <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="23" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>744420</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="24" t="n">
         <v>738873</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>49</v>
+      <c r="E6" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>25</v>
@@ -2159,33 +2232,33 @@
       <c r="G6" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="20" t="n">
         <v>0.205</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="21" t="n">
         <v>0.959231602619851</v>
       </c>
       <c r="J6" s="0"/>
-      <c r="K6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="20" t="n">
+      <c r="K6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="22" t="n">
         <v>0.0816313061671976</v>
       </c>
       <c r="Q6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="23" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>720646</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="24" t="n">
         <v>717187</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>51</v>
+      <c r="E7" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>30</v>
@@ -2193,33 +2266,33 @@
       <c r="G7" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H7" s="18" t="n">
+      <c r="H7" s="20" t="n">
         <v>0.163</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.962663302199386</v>
       </c>
       <c r="J7" s="0"/>
-      <c r="K7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="20" t="n">
+      <c r="K7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="22" t="n">
         <v>0.0909412064901171</v>
       </c>
       <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="23" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>698630</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="24" t="n">
         <v>697766</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>53</v>
+      <c r="E8" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>35</v>
@@ -2227,33 +2300,33 @@
       <c r="G8" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="H8" s="18" t="n">
+      <c r="H8" s="20" t="n">
         <v>0.113</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="21" t="n">
         <v>0.95745816617066</v>
       </c>
       <c r="J8" s="0"/>
-      <c r="K8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="20" t="n">
+      <c r="K8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="22" t="n">
         <v>0.0894491065924884</v>
       </c>
       <c r="Q8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="23" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>677081</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="24" t="n">
         <v>679087</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>55</v>
+      <c r="E9" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>40</v>
@@ -2261,33 +2334,33 @@
       <c r="G9" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="H9" s="18" t="n">
+      <c r="H9" s="20" t="n">
         <v>0.054</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="21" t="n">
         <v>0.959768654582646</v>
       </c>
       <c r="J9" s="0"/>
-      <c r="K9" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="20" t="n">
+      <c r="K9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="22" t="n">
         <v>0.0839092664088719</v>
       </c>
       <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="23" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>654706</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="24" t="n">
         <v>659624</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>57</v>
+      <c r="E10" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>45</v>
@@ -2295,33 +2368,33 @@
       <c r="G10" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H10" s="20" t="n">
         <v>0.025</v>
       </c>
-      <c r="I10" s="19" t="n">
+      <c r="I10" s="21" t="n">
         <v>0.924586731967597</v>
       </c>
       <c r="J10" s="0"/>
-      <c r="K10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="20" t="n">
+      <c r="K10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="22" t="n">
         <v>0.0903769773496902</v>
       </c>
       <c r="Q10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="23" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>630637</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="24" t="n">
         <v>638295</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>59</v>
+      <c r="E11" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>50</v>
@@ -2329,125 +2402,125 @@
       <c r="G11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="0"/>
-      <c r="K11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="20" t="n">
+      <c r="K11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="22" t="n">
         <v>0.0860651263285653</v>
       </c>
       <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="23" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>605712</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="24" t="n">
         <v>615781</v>
       </c>
       <c r="H12" s="0"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="20" t="n">
+      <c r="K12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="22" t="n">
         <v>0.0743172267903853</v>
       </c>
       <c r="Q12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="23" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>581191</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="24" t="n">
         <v>593200</v>
       </c>
       <c r="H13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="20" t="n">
+      <c r="K13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="22" t="n">
         <v>0.0757949300073362</v>
       </c>
       <c r="Q13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="23" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>558338</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="24" t="n">
         <v>571674</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>63</v>
+      <c r="E14" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="H14" s="0"/>
       <c r="J14" s="0"/>
-      <c r="K14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="24" t="n">
+      <c r="K14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="26" t="n">
         <v>0.047069979928229</v>
       </c>
       <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="23" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>538413</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="24" t="n">
         <v>552323</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>66</v>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="J15" s="0"/>
       <c r="L15" s="1"/>
       <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="23" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>522206</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="24" t="n">
         <v>535867</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>67</v>
+      <c r="E16" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0</v>
@@ -2455,10 +2528,10 @@
       <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="20" t="n">
         <v>0.0703706495228</v>
       </c>
-      <c r="I16" s="18" t="n">
+      <c r="I16" s="20" t="n">
         <v>0.0703706495228</v>
       </c>
       <c r="J16" s="0"/>
@@ -2466,17 +2539,17 @@
       <c r="Q16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="23" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>508619</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="24" t="n">
         <v>521420</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>68</v>
+      <c r="E17" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
@@ -2484,33 +2557,33 @@
       <c r="G17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="H17" s="20" t="n">
         <v>0.00275</v>
       </c>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="20" t="n">
         <v>0.00275</v>
       </c>
       <c r="J17" s="0"/>
-      <c r="K17" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
+      <c r="K17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
       <c r="Q17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
+      <c r="A18" s="23" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>496079</v>
       </c>
-      <c r="C18" s="22" t="n">
+      <c r="C18" s="24" t="n">
         <v>507698</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>70</v>
+      <c r="E18" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>5</v>
@@ -2518,39 +2591,39 @@
       <c r="G18" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="20" t="n">
         <v>0.00118</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="20" t="n">
         <v>0.00118</v>
       </c>
       <c r="J18" s="0"/>
-      <c r="K18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>74</v>
+      <c r="K18" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="Q18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
+      <c r="A19" s="23" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>483015</v>
       </c>
-      <c r="C19" s="22" t="n">
+      <c r="C19" s="24" t="n">
         <v>493416</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>75</v>
+      <c r="E19" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>10</v>
@@ -2558,39 +2631,39 @@
       <c r="G19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="H19" s="20" t="n">
         <v>0.00096</v>
       </c>
-      <c r="I19" s="18" t="n">
+      <c r="I19" s="20" t="n">
         <v>0.00096</v>
       </c>
       <c r="J19" s="0"/>
-      <c r="K19" s="29" t="n">
+      <c r="K19" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="30" t="n">
+      <c r="L19" s="32" t="n">
         <v>5.2</v>
       </c>
-      <c r="M19" s="31" t="n">
+      <c r="M19" s="33" t="n">
         <v>1.4</v>
       </c>
-      <c r="N19" s="32" t="n">
+      <c r="N19" s="34" t="n">
         <v>10</v>
       </c>
       <c r="Q19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
+      <c r="A20" s="23" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>467855</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="24" t="n">
         <v>477286</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>76</v>
+      <c r="E20" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>15</v>
@@ -2598,27 +2671,27 @@
       <c r="G20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="20" t="n">
         <v>0.0016</v>
       </c>
-      <c r="I20" s="18" t="n">
+      <c r="I20" s="20" t="n">
         <v>0.0016</v>
       </c>
       <c r="J20" s="0"/>
       <c r="Q20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="23" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>449602</v>
       </c>
-      <c r="C21" s="22" t="n">
+      <c r="C21" s="24" t="n">
         <v>458544</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>77</v>
+      <c r="E21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>20</v>
@@ -2626,30 +2699,30 @@
       <c r="G21" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H21" s="18" t="n">
+      <c r="H21" s="20" t="n">
         <v>0.00172</v>
       </c>
-      <c r="I21" s="18" t="n">
+      <c r="I21" s="20" t="n">
         <v>0.00172</v>
       </c>
       <c r="J21" s="0"/>
-      <c r="K21" s="6" t="s">
-        <v>78</v>
+      <c r="K21" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="Q21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="23" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>429550</v>
       </c>
-      <c r="C22" s="22" t="n">
+      <c r="C22" s="24" t="n">
         <v>438498</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>79</v>
+      <c r="E22" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>35</v>
@@ -2657,10 +2730,10 @@
       <c r="G22" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="20" t="n">
         <v>0.00461064301992153</v>
       </c>
-      <c r="I22" s="18" t="n">
+      <c r="I22" s="20" t="n">
         <v>0.00629002247447884</v>
       </c>
       <c r="J22" s="0"/>
@@ -2668,17 +2741,17 @@
       <c r="Q22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+      <c r="A23" s="23" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>409572</v>
       </c>
-      <c r="C23" s="22" t="n">
+      <c r="C23" s="24" t="n">
         <v>418976</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>80</v>
+      <c r="E23" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>50</v>
@@ -2686,10 +2759,10 @@
       <c r="G23" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="H23" s="20" t="n">
         <v>0.0078380931338666</v>
       </c>
-      <c r="I23" s="18" t="n">
+      <c r="I23" s="20" t="n">
         <v>0.0119510427015098</v>
       </c>
       <c r="J23" s="0"/>
@@ -2697,17 +2770,17 @@
       <c r="Q23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
+      <c r="A24" s="23" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>391535</v>
       </c>
-      <c r="C24" s="22" t="n">
+      <c r="C24" s="24" t="n">
         <v>401808</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>81</v>
+      <c r="E24" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>60</v>
@@ -2715,10 +2788,10 @@
       <c r="G24" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="H24" s="18" t="n">
+      <c r="H24" s="20" t="n">
         <v>0.0219466607748265</v>
       </c>
-      <c r="I24" s="18" t="n">
+      <c r="I24" s="20" t="n">
         <v>0.0310727110239255</v>
       </c>
       <c r="J24" s="0"/>
@@ -2726,17 +2799,17 @@
       <c r="Q24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
+      <c r="A25" s="23" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>377311</v>
       </c>
-      <c r="C25" s="22" t="n">
+      <c r="C25" s="24" t="n">
         <v>388821</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>82</v>
+      <c r="E25" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>75</v>
@@ -2744,10 +2817,10 @@
       <c r="G25" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H25" s="20" t="n">
         <v>0.0862190244725326</v>
       </c>
-      <c r="I25" s="33" t="n">
+      <c r="I25" s="35" t="n">
         <v>0.103974071503135</v>
       </c>
       <c r="J25" s="0"/>
@@ -2755,13 +2828,13 @@
       <c r="Q25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="n">
+      <c r="A26" s="23" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>368084</v>
       </c>
-      <c r="C26" s="22" t="n">
+      <c r="C26" s="24" t="n">
         <v>381080</v>
       </c>
       <c r="H26" s="0"/>
@@ -2770,917 +2843,917 @@
       <c r="Q26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
+      <c r="A27" s="23" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>362291</v>
       </c>
-      <c r="C27" s="22" t="n">
+      <c r="C27" s="24" t="n">
         <v>376601</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="22"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="0"/>
       <c r="L27" s="1"/>
       <c r="Q27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
+      <c r="A28" s="23" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>357687</v>
       </c>
-      <c r="C28" s="22" t="n">
+      <c r="C28" s="24" t="n">
         <v>372636</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="0"/>
       <c r="L28" s="1"/>
       <c r="Q28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="n">
+      <c r="A29" s="23" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>352023</v>
       </c>
-      <c r="C29" s="22" t="n">
+      <c r="C29" s="24" t="n">
         <v>366438</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="0"/>
       <c r="L29" s="1"/>
       <c r="Q29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="23" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>343054</v>
       </c>
-      <c r="C30" s="22" t="n">
+      <c r="C30" s="24" t="n">
         <v>355259</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="22"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="0"/>
       <c r="L30" s="1"/>
       <c r="Q30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="23" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>329258</v>
       </c>
-      <c r="C31" s="22" t="n">
+      <c r="C31" s="24" t="n">
         <v>337318</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="0"/>
       <c r="L31" s="1"/>
       <c r="Q31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="n">
+      <c r="A32" s="23" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>312015</v>
       </c>
-      <c r="C32" s="22" t="n">
+      <c r="C32" s="24" t="n">
         <v>314708</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="0"/>
       <c r="L32" s="1"/>
       <c r="Q32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="n">
+      <c r="A33" s="23" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>293433</v>
       </c>
-      <c r="C33" s="22" t="n">
+      <c r="C33" s="24" t="n">
         <v>290486</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="0"/>
-      <c r="I33" s="22"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="n">
+      <c r="A34" s="23" t="n">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>275618</v>
       </c>
-      <c r="C34" s="22" t="n">
+      <c r="C34" s="24" t="n">
         <v>267712</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="0"/>
-      <c r="I34" s="22"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="n">
+      <c r="A35" s="23" t="n">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>260676</v>
       </c>
-      <c r="C35" s="22" t="n">
+      <c r="C35" s="24" t="n">
         <v>249444</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="0"/>
-      <c r="I35" s="22"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="n">
+      <c r="A36" s="23" t="n">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>250097</v>
       </c>
-      <c r="C36" s="22" t="n">
+      <c r="C36" s="24" t="n">
         <v>237852</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="0"/>
-      <c r="I36" s="35"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="n">
+      <c r="A37" s="23" t="n">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>242902</v>
       </c>
-      <c r="C37" s="22" t="n">
+      <c r="C37" s="24" t="n">
         <v>231546</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+      <c r="A38" s="23" t="n">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>237494</v>
       </c>
-      <c r="C38" s="22" t="n">
+      <c r="C38" s="24" t="n">
         <v>228249</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+      <c r="A39" s="23" t="n">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>232277</v>
       </c>
-      <c r="C39" s="22" t="n">
+      <c r="C39" s="24" t="n">
         <v>225681</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="n">
+      <c r="A40" s="23" t="n">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>225655</v>
       </c>
-      <c r="C40" s="22" t="n">
+      <c r="C40" s="24" t="n">
         <v>221566</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="n">
+      <c r="A41" s="23" t="n">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>216461</v>
       </c>
-      <c r="C41" s="22" t="n">
+      <c r="C41" s="24" t="n">
         <v>214202</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="n">
+      <c r="A42" s="23" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>205251</v>
       </c>
-      <c r="C42" s="22" t="n">
+      <c r="C42" s="24" t="n">
         <v>204207</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="n">
+      <c r="A43" s="23" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>193012</v>
       </c>
-      <c r="C43" s="22" t="n">
+      <c r="C43" s="24" t="n">
         <v>192776</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="n">
+      <c r="A44" s="23" t="n">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>180729</v>
       </c>
-      <c r="C44" s="22" t="n">
+      <c r="C44" s="24" t="n">
         <v>181102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="n">
+      <c r="A45" s="23" t="n">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>169388</v>
       </c>
-      <c r="C45" s="22" t="n">
+      <c r="C45" s="24" t="n">
         <v>170382</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="n">
+      <c r="A46" s="23" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>159755</v>
       </c>
-      <c r="C46" s="22" t="n">
+      <c r="C46" s="24" t="n">
         <v>161551</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="n">
+      <c r="A47" s="23" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>151707</v>
       </c>
-      <c r="C47" s="22" t="n">
+      <c r="C47" s="24" t="n">
         <v>154511</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="n">
+      <c r="A48" s="23" t="n">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>144899</v>
       </c>
-      <c r="C48" s="22" t="n">
+      <c r="C48" s="24" t="n">
         <v>148905</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="n">
+      <c r="A49" s="23" t="n">
         <v>46</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>138989</v>
       </c>
-      <c r="C49" s="22" t="n">
+      <c r="C49" s="24" t="n">
         <v>144377</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="n">
+      <c r="A50" s="23" t="n">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>133631</v>
       </c>
-      <c r="C50" s="22" t="n">
+      <c r="C50" s="24" t="n">
         <v>140568</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="n">
+      <c r="A51" s="23" t="n">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>128529</v>
       </c>
-      <c r="C51" s="22" t="n">
+      <c r="C51" s="24" t="n">
         <v>137140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="n">
+      <c r="A52" s="23" t="n">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>123571</v>
       </c>
-      <c r="C52" s="22" t="n">
+      <c r="C52" s="24" t="n">
         <v>133826</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="n">
+      <c r="A53" s="23" t="n">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>118690</v>
       </c>
-      <c r="C53" s="22" t="n">
+      <c r="C53" s="24" t="n">
         <v>130377</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="n">
+      <c r="A54" s="23" t="n">
         <v>51</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>113822</v>
       </c>
-      <c r="C54" s="22" t="n">
+      <c r="C54" s="24" t="n">
         <v>126542</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="n">
+      <c r="A55" s="23" t="n">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>108901</v>
       </c>
-      <c r="C55" s="22" t="n">
+      <c r="C55" s="24" t="n">
         <v>122074</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="n">
+      <c r="A56" s="23" t="n">
         <v>53</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>103899</v>
       </c>
-      <c r="C56" s="22" t="n">
+      <c r="C56" s="24" t="n">
         <v>116834</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="n">
+      <c r="A57" s="23" t="n">
         <v>54</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>98934</v>
       </c>
-      <c r="C57" s="22" t="n">
+      <c r="C57" s="24" t="n">
         <v>111137</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="n">
+      <c r="A58" s="23" t="n">
         <v>55</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>94164</v>
       </c>
-      <c r="C58" s="22" t="n">
+      <c r="C58" s="24" t="n">
         <v>105408</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="n">
+      <c r="A59" s="23" t="n">
         <v>56</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>89744</v>
       </c>
-      <c r="C59" s="22" t="n">
+      <c r="C59" s="24" t="n">
         <v>100073</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="n">
+      <c r="A60" s="23" t="n">
         <v>57</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>85832</v>
       </c>
-      <c r="C60" s="22" t="n">
+      <c r="C60" s="24" t="n">
         <v>95557</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="n">
+      <c r="A61" s="23" t="n">
         <v>58</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>82523</v>
       </c>
-      <c r="C61" s="22" t="n">
+      <c r="C61" s="24" t="n">
         <v>92149</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="n">
+      <c r="A62" s="23" t="n">
         <v>59</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>79684</v>
       </c>
-      <c r="C62" s="22" t="n">
+      <c r="C62" s="24" t="n">
         <v>89582</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="n">
+      <c r="A63" s="23" t="n">
         <v>60</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>77118</v>
       </c>
-      <c r="C63" s="22" t="n">
+      <c r="C63" s="24" t="n">
         <v>87452</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21" t="n">
+      <c r="A64" s="23" t="n">
         <v>61</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>74631</v>
       </c>
-      <c r="C64" s="22" t="n">
+      <c r="C64" s="24" t="n">
         <v>85353</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="n">
+      <c r="A65" s="23" t="n">
         <v>62</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>72029</v>
       </c>
-      <c r="C65" s="22" t="n">
+      <c r="C65" s="24" t="n">
         <v>82882</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="n">
+      <c r="A66" s="23" t="n">
         <v>63</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>69151</v>
       </c>
-      <c r="C66" s="22" t="n">
+      <c r="C66" s="24" t="n">
         <v>79735</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="21" t="n">
+      <c r="A67" s="23" t="n">
         <v>64</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>65975</v>
       </c>
-      <c r="C67" s="22" t="n">
+      <c r="C67" s="24" t="n">
         <v>76005</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="21" t="n">
+      <c r="A68" s="23" t="n">
         <v>65</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>62514</v>
       </c>
-      <c r="C68" s="22" t="n">
+      <c r="C68" s="24" t="n">
         <v>71890</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21" t="n">
+      <c r="A69" s="23" t="n">
         <v>66</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>58780</v>
       </c>
-      <c r="C69" s="22" t="n">
+      <c r="C69" s="24" t="n">
         <v>67584</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="n">
+      <c r="A70" s="23" t="n">
         <v>67</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>54785</v>
       </c>
-      <c r="C70" s="22" t="n">
+      <c r="C70" s="24" t="n">
         <v>63282</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="21" t="n">
+      <c r="A71" s="23" t="n">
         <v>68</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>50562</v>
       </c>
-      <c r="C71" s="22" t="n">
+      <c r="C71" s="24" t="n">
         <v>59137</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="21" t="n">
+      <c r="A72" s="23" t="n">
         <v>69</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>46216</v>
       </c>
-      <c r="C72" s="22" t="n">
+      <c r="C72" s="24" t="n">
         <v>55130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="21" t="n">
+      <c r="A73" s="23" t="n">
         <v>70</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>41874</v>
       </c>
-      <c r="C73" s="22" t="n">
+      <c r="C73" s="24" t="n">
         <v>51201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21" t="n">
+      <c r="A74" s="23" t="n">
         <v>71</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>37660</v>
       </c>
-      <c r="C74" s="22" t="n">
+      <c r="C74" s="24" t="n">
         <v>47288</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="21" t="n">
+      <c r="A75" s="23" t="n">
         <v>72</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>33699</v>
       </c>
-      <c r="C75" s="22" t="n">
+      <c r="C75" s="24" t="n">
         <v>43329</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="n">
+      <c r="A76" s="23" t="n">
         <v>73</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>30090</v>
       </c>
-      <c r="C76" s="22" t="n">
+      <c r="C76" s="24" t="n">
         <v>39294</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21" t="n">
+      <c r="A77" s="23" t="n">
         <v>74</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>26818</v>
       </c>
-      <c r="C77" s="22" t="n">
+      <c r="C77" s="24" t="n">
         <v>35276</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="21" t="n">
+      <c r="A78" s="23" t="n">
         <v>75</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>23842</v>
       </c>
-      <c r="C78" s="22" t="n">
+      <c r="C78" s="24" t="n">
         <v>31397</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="21" t="n">
+      <c r="A79" s="23" t="n">
         <v>76</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>21118</v>
       </c>
-      <c r="C79" s="22" t="n">
+      <c r="C79" s="24" t="n">
         <v>27782</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21" t="n">
+      <c r="A80" s="23" t="n">
         <v>77</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>18606</v>
       </c>
-      <c r="C80" s="22" t="n">
+      <c r="C80" s="24" t="n">
         <v>24554</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="21" t="n">
+      <c r="A81" s="23" t="n">
         <v>78</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>16271</v>
       </c>
-      <c r="C81" s="22" t="n">
+      <c r="C81" s="24" t="n">
         <v>21797</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="21" t="n">
+      <c r="A82" s="23" t="n">
         <v>79</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>14114</v>
       </c>
-      <c r="C82" s="22" t="n">
+      <c r="C82" s="24" t="n">
         <v>19444</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="21" t="n">
+      <c r="A83" s="23" t="n">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>12141</v>
       </c>
-      <c r="C83" s="22" t="n">
+      <c r="C83" s="24" t="n">
         <v>17388</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="21" t="n">
+      <c r="A84" s="23" t="n">
         <v>81</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>10360</v>
       </c>
-      <c r="C84" s="22" t="n">
+      <c r="C84" s="24" t="n">
         <v>15525</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="21" t="n">
+      <c r="A85" s="23" t="n">
         <v>82</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>8779</v>
       </c>
-      <c r="C85" s="22" t="n">
+      <c r="C85" s="24" t="n">
         <v>13747</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="21" t="n">
+      <c r="A86" s="23" t="n">
         <v>83</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>7401</v>
       </c>
-      <c r="C86" s="22" t="n">
+      <c r="C86" s="24" t="n">
         <v>11973</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="21" t="n">
+      <c r="A87" s="23" t="n">
         <v>84</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>6203</v>
       </c>
-      <c r="C87" s="22" t="n">
+      <c r="C87" s="24" t="n">
         <v>10223</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="21" t="n">
+      <c r="A88" s="23" t="n">
         <v>85</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>5160</v>
       </c>
-      <c r="C88" s="22" t="n">
+      <c r="C88" s="24" t="n">
         <v>8541</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="21" t="n">
+      <c r="A89" s="23" t="n">
         <v>86</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>4244</v>
       </c>
-      <c r="C89" s="22" t="n">
+      <c r="C89" s="24" t="n">
         <v>6971</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="21" t="n">
+      <c r="A90" s="23" t="n">
         <v>87</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>3429</v>
       </c>
-      <c r="C90" s="22" t="n">
+      <c r="C90" s="24" t="n">
         <v>5557</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="21" t="n">
+      <c r="A91" s="23" t="n">
         <v>88</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>2694</v>
       </c>
-      <c r="C91" s="22" t="n">
+      <c r="C91" s="24" t="n">
         <v>4334</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21" t="n">
+      <c r="A92" s="23" t="n">
         <v>89</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>2040</v>
       </c>
-      <c r="C92" s="22" t="n">
+      <c r="C92" s="24" t="n">
         <v>3298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="21" t="n">
+      <c r="A93" s="23" t="n">
         <v>90</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>1475</v>
       </c>
-      <c r="C93" s="22" t="n">
+      <c r="C93" s="24" t="n">
         <v>2439</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="21" t="n">
+      <c r="A94" s="23" t="n">
         <v>91</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="C94" s="22" t="n">
+      <c r="C94" s="24" t="n">
         <v>1744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="21" t="n">
+      <c r="A95" s="23" t="n">
         <v>92</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>639</v>
       </c>
-      <c r="C95" s="22" t="n">
+      <c r="C95" s="24" t="n">
         <v>1201</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="21" t="n">
+      <c r="A96" s="23" t="n">
         <v>93</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="C96" s="22" t="n">
+      <c r="C96" s="24" t="n">
         <v>797</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="21" t="n">
+      <c r="A97" s="23" t="n">
         <v>94</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="C97" s="22" t="n">
+      <c r="C97" s="24" t="n">
         <v>511</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="21" t="n">
+      <c r="A98" s="23" t="n">
         <v>95</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="C98" s="22" t="n">
+      <c r="C98" s="24" t="n">
         <v>322</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="21" t="n">
+      <c r="A99" s="23" t="n">
         <v>96</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C99" s="22" t="n">
+      <c r="C99" s="24" t="n">
         <v>206</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="21" t="n">
+      <c r="A100" s="23" t="n">
         <v>97</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C100" s="22" t="n">
+      <c r="C100" s="24" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="21" t="n">
+      <c r="A101" s="23" t="n">
         <v>98</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C101" s="22" t="n">
+      <c r="C101" s="24" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="21" t="n">
+      <c r="A102" s="23" t="n">
         <v>99</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C102" s="22" t="n">
+      <c r="C102" s="24" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="36" t="n">
+      <c r="A103" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="B103" s="34" t="n">
+      <c r="B103" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="C103" s="35" t="n">
+      <c r="C103" s="37" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3695,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3718,45 +3791,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>93</v>
+      <c r="G2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,31 +3839,31 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="n">
+      <c r="D3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="39" t="n">
+      <c r="K3" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="40" t="n">
+      <c r="L3" s="42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,29 +3874,29 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="39" t="n">
+      <c r="J4" s="24"/>
+      <c r="K4" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="40" t="n">
+      <c r="L4" s="42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3834,31 +3907,31 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="39" t="n">
+      <c r="K5" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="40" t="n">
+      <c r="L5" s="42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3869,29 +3942,29 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="39" t="n">
+      <c r="J6" s="24"/>
+      <c r="K6" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="40" t="n">
+      <c r="L6" s="42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3902,29 +3975,29 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="39" t="n">
+      <c r="J7" s="24"/>
+      <c r="K7" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="40" t="n">
+      <c r="L7" s="42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3935,29 +4008,29 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="41" t="n">
+      <c r="J8" s="37"/>
+      <c r="K8" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="42" t="n">
+      <c r="L8" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,97 +4041,24 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:D6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.86"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="44" t="n">
+      <c r="D10" s="37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4097,33 +4097,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="39" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="45" t="n">
@@ -4149,7 +4149,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="45" t="n">
@@ -4175,7 +4175,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="45" t="n">
@@ -4201,7 +4201,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="47" t="n">
@@ -4249,9 +4249,9 @@
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50"/>
       <c r="B14" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D14" s="52" t="s">
@@ -4260,10 +4260,10 @@
       <c r="E14" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="15" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="52" t="s">
@@ -4272,7 +4272,7 @@
       <c r="I14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="53" t="n">
@@ -4281,7 +4281,7 @@
       <c r="D15" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="45" t="n">
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="45" t="n">
@@ -4304,7 +4304,7 @@
       <c r="D16" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="45" t="n">
@@ -4318,7 +4318,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="45" t="n">
@@ -4327,7 +4327,7 @@
       <c r="D17" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="45" t="n">
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="45" t="n">
@@ -4350,7 +4350,7 @@
       <c r="D18" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="45" t="n">
@@ -4364,7 +4364,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="47" t="n">
@@ -4373,7 +4373,7 @@
       <c r="D19" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>120</v>
       </c>
       <c r="F19" s="47" t="n">
@@ -4443,33 +4443,33 @@
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -4490,12 +4490,12 @@
       <c r="H3" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="42" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -4516,12 +4516,12 @@
       <c r="H4" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I4" s="40" t="n">
+      <c r="I4" s="42" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -4530,7 +4530,7 @@
       <c r="C5" s="62" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -4545,12 +4545,12 @@
       <c r="H5" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="42" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -4559,7 +4559,7 @@
       <c r="C6" s="62" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -4574,15 +4574,15 @@
       <c r="H6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="8" t="n">
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
@@ -4602,16 +4602,16 @@
       <c r="H7" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <f aca="false">3*30</f>
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="34" t="n">
+      <c r="B8" s="36" t="n">
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
@@ -4619,10 +4619,10 @@
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="34" t="n">
+      <c r="E8" s="36" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="67" t="n">
@@ -4634,7 +4634,7 @@
       <c r="H8" s="68" t="n">
         <v>0.75</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="44" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4721,16 +4721,16 @@
       <c r="A2" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>149</v>
       </c>
       <c r="F2" s="50"/>
@@ -4742,10 +4742,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="63" t="n">
@@ -4757,7 +4757,7 @@
       <c r="E3" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="54" t="s">
@@ -4765,10 +4765,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="63" t="n">
@@ -4780,7 +4780,7 @@
       <c r="E4" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="57" t="s">
@@ -4788,10 +4788,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="63" t="n">
@@ -4803,7 +4803,7 @@
       <c r="E5" s="71" t="n">
         <v>0.95</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="57" t="s">
@@ -4811,10 +4811,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="63" t="n">
@@ -4826,7 +4826,7 @@
       <c r="E6" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="59" t="s">
@@ -4834,10 +4834,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="63" t="n">
@@ -4851,10 +4851,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="63" t="n">
@@ -4868,10 +4868,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="72" t="n">
@@ -4954,43 +4954,43 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="M2" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="39" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       <c r="F3" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H3" s="17" t="n">
+      <c r="H3" s="19" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="77" t="n">
@@ -5023,7 +5023,7 @@
         <f aca="false">I3</f>
         <v>0.04</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="79" t="n">
@@ -5058,7 +5058,7 @@
       <c r="F4" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H4" s="17" t="n">
+      <c r="H4" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="77" t="n">
@@ -5068,7 +5068,7 @@
         <f aca="false">I4</f>
         <v>0.02</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="82" t="n">
@@ -5105,7 +5105,7 @@
       <c r="F5" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="19" t="n">
         <v>2</v>
       </c>
       <c r="I5" s="77" t="n">
@@ -5115,7 +5115,7 @@
         <f aca="false">I5</f>
         <v>0.01</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="85" t="n">
@@ -5152,7 +5152,7 @@
       <c r="F6" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="19" t="n">
         <v>3</v>
       </c>
       <c r="I6" s="77" t="n">
@@ -5186,7 +5186,7 @@
       <c r="F7" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="19" t="n">
         <v>4</v>
       </c>
       <c r="I7" s="77" t="n">
@@ -5219,7 +5219,7 @@
       <c r="F8" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="19" t="n">
         <v>5</v>
       </c>
       <c r="I8" s="77" t="n">
@@ -5230,7 +5230,7 @@
         <f aca="false">I8</f>
         <v>0.005</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       <c r="F9" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="19" t="n">
         <v>6</v>
       </c>
       <c r="I9" s="77" t="n">
@@ -5266,13 +5266,13 @@
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       <c r="F10" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="19" t="n">
         <v>7</v>
       </c>
       <c r="I10" s="77" t="n">
@@ -5341,7 +5341,7 @@
       <c r="F11" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="19" t="n">
         <v>8</v>
       </c>
       <c r="I11" s="77" t="n">
@@ -5375,7 +5375,7 @@
       <c r="F12" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="19" t="n">
         <v>9</v>
       </c>
       <c r="I12" s="77" t="n">
@@ -5409,7 +5409,7 @@
       <c r="F13" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="19" t="n">
         <v>10</v>
       </c>
       <c r="I13" s="77" t="n">
@@ -5443,7 +5443,7 @@
       <c r="F14" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H14" s="17" t="n">
+      <c r="H14" s="19" t="n">
         <v>11</v>
       </c>
       <c r="I14" s="77" t="n">
@@ -5476,7 +5476,7 @@
       <c r="F15" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="19" t="n">
         <v>12</v>
       </c>
       <c r="I15" s="77" t="n">
@@ -5509,7 +5509,7 @@
       <c r="F16" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="19" t="n">
         <v>13</v>
       </c>
       <c r="I16" s="77" t="n">
@@ -5542,7 +5542,7 @@
       <c r="F17" s="76" t="n">
         <v>0.05</v>
       </c>
-      <c r="H17" s="17" t="n">
+      <c r="H17" s="19" t="n">
         <v>14</v>
       </c>
       <c r="I17" s="77" t="n">
@@ -5575,7 +5575,7 @@
       <c r="F18" s="92" t="n">
         <v>0.05</v>
       </c>
-      <c r="H18" s="23" t="n">
+      <c r="H18" s="25" t="n">
         <v>15</v>
       </c>
       <c r="I18" s="93" t="n">
@@ -5663,36 +5663,36 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="50"/>
@@ -5721,50 +5721,50 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" s="50" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="95" t="s">
@@ -5788,48 +5788,48 @@
       <c r="G18" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="E22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="95" t="s">
@@ -5859,137 +5859,137 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="n">
+      <c r="A27" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+      <c r="A28" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="17"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
+      <c r="A29" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="17"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+      <c r="A30" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="17"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+      <c r="A31" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="17"/>
-      <c r="G31" s="22"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="n">
+      <c r="A32" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="17"/>
-      <c r="G32" s="22"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="n">
+      <c r="A33" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="17"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="A34" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="17"/>
-      <c r="G34" s="22"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="17"/>
-      <c r="G35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="A36" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="17"/>
-      <c r="G36" s="22"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="17"/>
-      <c r="G37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="A38" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="17"/>
-      <c r="G38" s="22"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="19"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="17"/>
-      <c r="G39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+      <c r="A40" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="17"/>
-      <c r="G40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="19"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="n">
+      <c r="A41" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="17"/>
-      <c r="G41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="n">
+      <c r="A42" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="98" t="s">
@@ -6019,62 +6019,62 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="6" t="s">
+      <c r="A48" s="19"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17"/>
-      <c r="E49" s="22"/>
+      <c r="A49" s="19"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="19"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="E51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="E52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="19"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="19"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="19"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="E56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="E57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="E58" s="22"/>
+      <c r="A58" s="19"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="E59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/model_inputs.xlsx
+++ b/data/model_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Validation lists" sheetId="1" state="visible" r:id="rId3"/>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">Annual mortality rate | treat</t>
   </si>
   <si>
-    <t xml:space="preserve">Cummulative baseline disease probability | no intervention</t>
+    <t xml:space="preserve">Cumulative baseline disease probability | no intervention</t>
   </si>
   <si>
     <t xml:space="preserve">Annual baseline mortality | no intervention. This is what we are going to calibrate.</t>
@@ -1971,7 +1971,7 @@
   </sheetPr>
   <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4926,8 +4926,8 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/model_inputs.xlsx
+++ b/data/model_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Validation lists" sheetId="1" state="visible" r:id="rId3"/>
@@ -1971,8 +1971,8 @@
   </sheetPr>
   <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2007,7 +2007,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2035</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,8 +4926,8 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5636,7 +5636,7 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>

--- a/data/model_inputs.xlsx
+++ b/data/model_inputs.xlsx
@@ -1043,7 +1043,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,7 +1056,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1237,10 +1237,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1846,22 +1842,22 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="49"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
@@ -1869,27 +1865,27 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="98" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="98" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1899,57 +1895,57 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="98" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="98" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="98" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="98" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="98" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="98" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="98" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="98" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="98" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1972,7 +1968,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2007,14 +2003,14 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2027</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2042,7 +2038,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
@@ -2050,14 +2046,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,13 +2065,9 @@
       <c r="E1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
       <c r="K1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="Q1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
@@ -2102,14 +2094,12 @@
       <c r="I2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="0"/>
       <c r="K2" s="12" t="s">
         <v>47</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
@@ -2136,14 +2126,12 @@
       <c r="I3" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="0"/>
       <c r="K3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="22" t="n">
         <v>0.0952769422030462</v>
       </c>
-      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="n">
@@ -2170,14 +2158,12 @@
       <c r="I4" s="21" t="n">
         <v>0.977238972986109</v>
       </c>
-      <c r="J4" s="0"/>
       <c r="K4" s="19" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="22" t="n">
         <v>0.0907598961572639</v>
       </c>
-      <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="n">
@@ -2204,14 +2190,12 @@
       <c r="I5" s="21" t="n">
         <v>0.996853533116784</v>
       </c>
-      <c r="J5" s="0"/>
       <c r="K5" s="19" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="22" t="n">
         <v>0.0944080355768089</v>
       </c>
-      <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="n">
@@ -2238,14 +2222,12 @@
       <c r="I6" s="21" t="n">
         <v>0.959231602619851</v>
       </c>
-      <c r="J6" s="0"/>
       <c r="K6" s="19" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="22" t="n">
         <v>0.0816313061671976</v>
       </c>
-      <c r="Q6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="n">
@@ -2272,14 +2254,12 @@
       <c r="I7" s="21" t="n">
         <v>0.962663302199386</v>
       </c>
-      <c r="J7" s="0"/>
       <c r="K7" s="19" t="s">
         <v>59</v>
       </c>
       <c r="L7" s="22" t="n">
         <v>0.0909412064901171</v>
       </c>
-      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="n">
@@ -2306,14 +2286,12 @@
       <c r="I8" s="21" t="n">
         <v>0.95745816617066</v>
       </c>
-      <c r="J8" s="0"/>
       <c r="K8" s="19" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>0.0894491065924884</v>
       </c>
-      <c r="Q8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="n">
@@ -2340,14 +2318,12 @@
       <c r="I9" s="21" t="n">
         <v>0.959768654582646</v>
       </c>
-      <c r="J9" s="0"/>
       <c r="K9" s="19" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="22" t="n">
         <v>0.0839092664088719</v>
       </c>
-      <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="n">
@@ -2374,14 +2350,12 @@
       <c r="I10" s="21" t="n">
         <v>0.924586731967597</v>
       </c>
-      <c r="J10" s="0"/>
       <c r="K10" s="19" t="s">
         <v>65</v>
       </c>
       <c r="L10" s="22" t="n">
         <v>0.0903769773496902</v>
       </c>
-      <c r="Q10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="n">
@@ -2408,14 +2382,12 @@
       <c r="I11" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="0"/>
       <c r="K11" s="19" t="s">
         <v>67</v>
       </c>
       <c r="L11" s="22" t="n">
         <v>0.0860651263285653</v>
       </c>
-      <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="n">
@@ -2427,15 +2399,12 @@
       <c r="C12" s="24" t="n">
         <v>615781</v>
       </c>
-      <c r="H12" s="0"/>
-      <c r="J12" s="0"/>
       <c r="K12" s="19" t="s">
         <v>68</v>
       </c>
       <c r="L12" s="22" t="n">
         <v>0.0743172267903853</v>
       </c>
-      <c r="Q12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="n">
@@ -2447,15 +2416,12 @@
       <c r="C13" s="24" t="n">
         <v>593200</v>
       </c>
-      <c r="H13" s="0"/>
-      <c r="J13" s="0"/>
       <c r="K13" s="19" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="22" t="n">
         <v>0.0757949300073362</v>
       </c>
-      <c r="Q13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="n">
@@ -2470,15 +2436,12 @@
       <c r="E14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="0"/>
-      <c r="J14" s="0"/>
       <c r="K14" s="25" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="26" t="n">
         <v>0.047069979928229</v>
       </c>
-      <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="n">
@@ -2505,9 +2468,6 @@
       <c r="I15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="0"/>
-      <c r="L15" s="1"/>
-      <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="n">
@@ -2534,9 +2494,6 @@
       <c r="I16" s="20" t="n">
         <v>0.0703706495228</v>
       </c>
-      <c r="J16" s="0"/>
-      <c r="L16" s="1"/>
-      <c r="Q16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="n">
@@ -2563,14 +2520,12 @@
       <c r="I17" s="20" t="n">
         <v>0.00275</v>
       </c>
-      <c r="J17" s="0"/>
       <c r="K17" s="27" t="s">
         <v>76</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="18"/>
-      <c r="Q17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="n">
@@ -2597,7 +2552,6 @@
       <c r="I18" s="20" t="n">
         <v>0.00118</v>
       </c>
-      <c r="J18" s="0"/>
       <c r="K18" s="28" t="s">
         <v>78</v>
       </c>
@@ -2610,7 +2564,6 @@
       <c r="N18" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="n">
@@ -2637,7 +2590,6 @@
       <c r="I19" s="20" t="n">
         <v>0.00096</v>
       </c>
-      <c r="J19" s="0"/>
       <c r="K19" s="31" t="n">
         <v>1</v>
       </c>
@@ -2650,7 +2602,6 @@
       <c r="N19" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="Q19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="n">
@@ -2677,8 +2628,6 @@
       <c r="I20" s="20" t="n">
         <v>0.0016</v>
       </c>
-      <c r="J20" s="0"/>
-      <c r="Q20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="n">
@@ -2705,11 +2654,9 @@
       <c r="I21" s="20" t="n">
         <v>0.00172</v>
       </c>
-      <c r="J21" s="0"/>
       <c r="K21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="n">
@@ -2736,9 +2683,6 @@
       <c r="I22" s="20" t="n">
         <v>0.00629002247447884</v>
       </c>
-      <c r="J22" s="0"/>
-      <c r="L22" s="1"/>
-      <c r="Q22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="n">
@@ -2765,9 +2709,6 @@
       <c r="I23" s="20" t="n">
         <v>0.0119510427015098</v>
       </c>
-      <c r="J23" s="0"/>
-      <c r="L23" s="1"/>
-      <c r="Q23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="n">
@@ -2794,9 +2735,6 @@
       <c r="I24" s="20" t="n">
         <v>0.0310727110239255</v>
       </c>
-      <c r="J24" s="0"/>
-      <c r="L24" s="1"/>
-      <c r="Q24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="n">
@@ -2823,9 +2761,6 @@
       <c r="I25" s="35" t="n">
         <v>0.103974071503135</v>
       </c>
-      <c r="J25" s="0"/>
-      <c r="L25" s="1"/>
-      <c r="Q25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="n">
@@ -2837,10 +2772,6 @@
       <c r="C26" s="24" t="n">
         <v>381080</v>
       </c>
-      <c r="H26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="L26" s="1"/>
-      <c r="Q26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="n">
@@ -2855,11 +2786,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="0"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="0"/>
-      <c r="L27" s="1"/>
-      <c r="Q27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="n">
@@ -2874,11 +2801,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="0"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="0"/>
-      <c r="L28" s="1"/>
-      <c r="Q28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="n">
@@ -2893,11 +2816,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="0"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="0"/>
-      <c r="L29" s="1"/>
-      <c r="Q29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="n">
@@ -2912,11 +2831,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="0"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="0"/>
-      <c r="L30" s="1"/>
-      <c r="Q30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="n">
@@ -2931,11 +2846,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="0"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="0"/>
-      <c r="L31" s="1"/>
-      <c r="Q31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="n">
@@ -2950,11 +2861,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="0"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="0"/>
-      <c r="L32" s="1"/>
-      <c r="Q32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="n">
@@ -2969,7 +2876,6 @@
       <c r="E33" s="19"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="0"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2891,6 @@
       <c r="E34" s="19"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="0"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +2906,6 @@
       <c r="E35" s="19"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="0"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +2921,6 @@
       <c r="E36" s="25"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="0"/>
       <c r="I36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,7 +4130,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4247,17 +4150,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -4266,19 +4169,19 @@
       <c r="G14" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="53" t="n">
+      <c r="C15" s="52" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="54" t="n">
+      <c r="D15" s="53" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -4287,10 +4190,10 @@
       <c r="F15" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="G15" s="55" t="n">
+      <c r="G15" s="54" t="n">
         <v>0.2</v>
       </c>
-      <c r="H15" s="56" t="n">
+      <c r="H15" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,7 +4204,7 @@
       <c r="C16" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="57" t="n">
+      <c r="D16" s="56" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -4310,10 +4213,10 @@
       <c r="F16" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="55" t="n">
+      <c r="G16" s="54" t="n">
         <v>0.2</v>
       </c>
-      <c r="H16" s="58" t="n">
+      <c r="H16" s="57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4324,7 +4227,7 @@
       <c r="C17" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="57" t="n">
+      <c r="D17" s="56" t="n">
         <v>10</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -4333,10 +4236,10 @@
       <c r="F17" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="55" t="n">
+      <c r="G17" s="54" t="n">
         <v>0.2</v>
       </c>
-      <c r="H17" s="58" t="n">
+      <c r="H17" s="57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4347,7 +4250,7 @@
       <c r="C18" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="57" t="n">
+      <c r="D18" s="56" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -4356,10 +4259,10 @@
       <c r="F18" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="55" t="n">
+      <c r="G18" s="54" t="n">
         <v>0.2</v>
       </c>
-      <c r="H18" s="58" t="n">
+      <c r="H18" s="57" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4370,7 +4273,7 @@
       <c r="C19" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="D19" s="59" t="n">
+      <c r="D19" s="58" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="25" t="s">
@@ -4379,15 +4282,15 @@
       <c r="F19" s="47" t="n">
         <v>12</v>
       </c>
-      <c r="G19" s="60" t="n">
+      <c r="G19" s="59" t="n">
         <v>0.2</v>
       </c>
-      <c r="H19" s="61" t="n">
+      <c r="H19" s="60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4440,7 +4343,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4475,19 +4378,19 @@
       <c r="B3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="62" t="n">
+      <c r="C3" s="61" t="n">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="63" t="n">
+      <c r="F3" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="G3" s="64" t="n">
+      <c r="G3" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="64" t="n">
+      <c r="H3" s="63" t="n">
         <v>0.75</v>
       </c>
       <c r="I3" s="42" t="n">
@@ -4501,19 +4404,19 @@
       <c r="B4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="62" t="n">
+      <c r="C4" s="61" t="n">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="65" t="n">
+      <c r="F4" s="64" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" s="64" t="n">
+      <c r="G4" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="64" t="n">
+      <c r="H4" s="63" t="n">
         <v>0.75</v>
       </c>
       <c r="I4" s="42" t="n">
@@ -4527,7 +4430,7 @@
       <c r="B5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="62" t="n">
+      <c r="C5" s="61" t="n">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -4536,13 +4439,13 @@
       <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="63" t="n">
+      <c r="F5" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="64" t="n">
+      <c r="G5" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="64" t="n">
+      <c r="H5" s="63" t="n">
         <v>0.75</v>
       </c>
       <c r="I5" s="42" t="n">
@@ -4556,7 +4459,7 @@
       <c r="B6" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="62" t="n">
+      <c r="C6" s="61" t="n">
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -4565,13 +4468,13 @@
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="65" t="n">
+      <c r="F6" s="64" t="n">
         <v>0.5</v>
       </c>
-      <c r="G6" s="64" t="n">
+      <c r="G6" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="64" t="n">
+      <c r="H6" s="63" t="n">
         <v>0.75</v>
       </c>
       <c r="I6" s="42" t="n">
@@ -4586,20 +4489,20 @@
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
-      <c r="C7" s="62" t="n">
+      <c r="C7" s="61" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="65" t="n">
+      <c r="F7" s="64" t="n">
         <v>0.6</v>
       </c>
-      <c r="G7" s="64" t="n">
+      <c r="G7" s="63" t="n">
         <v>12</v>
       </c>
-      <c r="H7" s="64" t="n">
+      <c r="H7" s="63" t="n">
         <v>0.75</v>
       </c>
       <c r="I7" s="42" t="n">
@@ -4615,7 +4518,7 @@
         <f aca="false">9*12</f>
         <v>108</v>
       </c>
-      <c r="C8" s="66" t="n">
+      <c r="C8" s="65" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
@@ -4625,13 +4528,13 @@
       <c r="E8" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="67" t="n">
+      <c r="F8" s="66" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" s="68" t="n">
+      <c r="G8" s="67" t="n">
         <v>12</v>
       </c>
-      <c r="H8" s="68" t="n">
+      <c r="H8" s="67" t="n">
         <v>0.75</v>
       </c>
       <c r="I8" s="44" t="n">
@@ -4639,27 +4542,27 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4674,7 +4577,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="68" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4718,7 +4621,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4733,11 +4636,11 @@
       <c r="E2" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4748,19 +4651,19 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63" t="n">
+      <c r="C3" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D3" s="65" t="n">
+      <c r="D3" s="64" t="n">
         <v>0.8</v>
       </c>
-      <c r="E3" s="71" t="n">
+      <c r="E3" s="70" t="n">
         <v>0.75</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4771,19 +4674,19 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63" t="n">
+      <c r="C4" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="65" t="n">
+      <c r="D4" s="64" t="n">
         <v>0.98</v>
       </c>
-      <c r="E4" s="71" t="n">
+      <c r="E4" s="70" t="n">
         <v>0.75</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4794,19 +4697,19 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="63" t="n">
+      <c r="C5" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" s="65" t="n">
+      <c r="D5" s="64" t="n">
         <v>0.85</v>
       </c>
-      <c r="E5" s="71" t="n">
+      <c r="E5" s="70" t="n">
         <v>0.95</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4817,19 +4720,19 @@
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="63" t="n">
+      <c r="C6" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D6" s="65" t="n">
+      <c r="D6" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="71" t="n">
+      <c r="E6" s="70" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4840,13 +4743,13 @@
       <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="63" t="n">
+      <c r="C7" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D7" s="65" t="n">
+      <c r="D7" s="64" t="n">
         <v>0.9</v>
       </c>
-      <c r="E7" s="71" t="n">
+      <c r="E7" s="70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,13 +4760,13 @@
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="63" t="n">
+      <c r="C8" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="D8" s="65" t="n">
+      <c r="D8" s="64" t="n">
         <v>0.97</v>
       </c>
-      <c r="E8" s="71" t="n">
+      <c r="E8" s="70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,34 +4777,34 @@
       <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="72" t="n">
+      <c r="C9" s="71" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="67" t="n">
+      <c r="D9" s="66" t="n">
         <v>0.99</v>
       </c>
-      <c r="E9" s="73" t="n">
+      <c r="E9" s="72" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="73" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4984,7 +4887,7 @@
       <c r="L2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>164</v>
       </c>
       <c r="N2" s="14" t="s">
@@ -4995,238 +4898,238 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="n">
+      <c r="A3" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="63" t="n">
+      <c r="B3" s="62" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="75" t="n">
+      <c r="C3" s="74" t="n">
         <v>0.0005</v>
       </c>
-      <c r="D3" s="63" t="n">
+      <c r="D3" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="75" t="n">
+      <c r="E3" s="74" t="n">
         <v>0.0005</v>
       </c>
-      <c r="F3" s="76" t="n">
+      <c r="F3" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="77" t="n">
+      <c r="I3" s="76" t="n">
         <v>0.04</v>
       </c>
-      <c r="J3" s="78" t="n">
+      <c r="J3" s="77" t="n">
         <f aca="false">I3</f>
         <v>0.04</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="79" t="n">
+      <c r="M3" s="78" t="n">
         <f aca="false">0.07</f>
         <v>0.07</v>
       </c>
-      <c r="N3" s="80" t="n">
+      <c r="N3" s="79" t="n">
         <v>0.025</v>
       </c>
-      <c r="O3" s="81" t="n">
+      <c r="O3" s="80" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="n">
+      <c r="A4" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="63" t="n">
+      <c r="B4" s="62" t="n">
         <v>0.7</v>
       </c>
-      <c r="C4" s="75" t="n">
+      <c r="C4" s="74" t="n">
         <f aca="false">C3+0.0005</f>
         <v>0.001</v>
       </c>
-      <c r="D4" s="63" t="n">
+      <c r="D4" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="75" t="n">
+      <c r="E4" s="74" t="n">
         <f aca="false">E3+0.0005</f>
         <v>0.001</v>
       </c>
-      <c r="F4" s="76" t="n">
+      <c r="F4" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="77" t="n">
+      <c r="I4" s="76" t="n">
         <v>0.02</v>
       </c>
-      <c r="J4" s="78" t="n">
+      <c r="J4" s="77" t="n">
         <f aca="false">I4</f>
         <v>0.02</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="82" t="n">
+      <c r="M4" s="81" t="n">
         <f aca="false">0.5</f>
         <v>0.5</v>
       </c>
-      <c r="N4" s="83" t="n">
+      <c r="N4" s="82" t="n">
         <f aca="false">M4/2</f>
         <v>0.25</v>
       </c>
-      <c r="O4" s="84" t="n">
+      <c r="O4" s="83" t="n">
         <f aca="false">N4/2</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="n">
+      <c r="A5" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="n">
+      <c r="B5" s="62" t="n">
         <v>0.75</v>
       </c>
-      <c r="C5" s="75" t="n">
+      <c r="C5" s="74" t="n">
         <f aca="false">C4+0.0005</f>
         <v>0.0015</v>
       </c>
-      <c r="D5" s="63" t="n">
+      <c r="D5" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="75" t="n">
+      <c r="E5" s="74" t="n">
         <f aca="false">E4+0.0005</f>
         <v>0.0015</v>
       </c>
-      <c r="F5" s="76" t="n">
+      <c r="F5" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="77" t="n">
+      <c r="I5" s="76" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="78" t="n">
+      <c r="J5" s="77" t="n">
         <f aca="false">I5</f>
         <v>0.01</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="85" t="n">
+      <c r="M5" s="84" t="n">
         <f aca="false">0.4</f>
         <v>0.4</v>
       </c>
-      <c r="N5" s="86" t="n">
+      <c r="N5" s="85" t="n">
         <f aca="false">M5/2</f>
         <v>0.2</v>
       </c>
-      <c r="O5" s="87" t="n">
+      <c r="O5" s="86" t="n">
         <f aca="false">N5/2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="n">
+      <c r="A6" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="n">
+      <c r="B6" s="62" t="n">
         <v>0.8</v>
       </c>
-      <c r="C6" s="75" t="n">
+      <c r="C6" s="74" t="n">
         <f aca="false">C5+0.0005</f>
         <v>0.002</v>
       </c>
-      <c r="D6" s="63" t="n">
+      <c r="D6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="75" t="n">
+      <c r="E6" s="74" t="n">
         <f aca="false">E5+0.0005</f>
         <v>0.002</v>
       </c>
-      <c r="F6" s="76" t="n">
+      <c r="F6" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="77" t="n">
+      <c r="I6" s="76" t="n">
         <v>0.005</v>
       </c>
-      <c r="J6" s="78" t="n">
+      <c r="J6" s="77" t="n">
         <f aca="false">I6</f>
         <v>0.005</v>
       </c>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="n">
+      <c r="A7" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="63" t="n">
+      <c r="B7" s="62" t="n">
         <v>0.9</v>
       </c>
-      <c r="C7" s="75" t="n">
+      <c r="C7" s="74" t="n">
         <f aca="false">C6+0.0005</f>
         <v>0.0025</v>
       </c>
-      <c r="D7" s="63" t="n">
+      <c r="D7" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="75" t="n">
+      <c r="E7" s="74" t="n">
         <f aca="false">E6+0.0005</f>
         <v>0.0025</v>
       </c>
-      <c r="F7" s="76" t="n">
+      <c r="F7" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="77" t="n">
+      <c r="I7" s="76" t="n">
         <f aca="false">I6</f>
         <v>0.005</v>
       </c>
-      <c r="J7" s="78" t="n">
+      <c r="J7" s="77" t="n">
         <f aca="false">I7</f>
         <v>0.005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="n">
+      <c r="A8" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="63" t="n">
+      <c r="B8" s="62" t="n">
         <v>0.98</v>
       </c>
-      <c r="C8" s="75" t="n">
+      <c r="C8" s="74" t="n">
         <f aca="false">C7+0.0005</f>
         <v>0.003</v>
       </c>
-      <c r="D8" s="63" t="n">
+      <c r="D8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="75" t="n">
+      <c r="E8" s="74" t="n">
         <f aca="false">E7+0.0005</f>
         <v>0.003</v>
       </c>
-      <c r="F8" s="76" t="n">
+      <c r="F8" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H8" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="77" t="n">
+      <c r="I8" s="76" t="n">
         <f aca="false">I7</f>
         <v>0.005</v>
       </c>
-      <c r="J8" s="78" t="n">
+      <c r="J8" s="77" t="n">
         <f aca="false">I8</f>
         <v>0.005</v>
       </c>
@@ -5235,34 +5138,34 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="n">
+      <c r="A9" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="63" t="n">
+      <c r="B9" s="62" t="n">
         <f aca="false">B8</f>
         <v>0.98</v>
       </c>
-      <c r="C9" s="75" t="n">
+      <c r="C9" s="74" t="n">
         <f aca="false">C8+0.0005</f>
         <v>0.0035</v>
       </c>
-      <c r="D9" s="63" t="n">
+      <c r="D9" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="75" t="n">
+      <c r="E9" s="74" t="n">
         <f aca="false">E8+0.0005</f>
         <v>0.0035</v>
       </c>
-      <c r="F9" s="76" t="n">
+      <c r="F9" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H9" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="77" t="n">
+      <c r="I9" s="76" t="n">
         <v>0.003</v>
       </c>
-      <c r="J9" s="78" t="n">
+      <c r="J9" s="77" t="n">
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
@@ -5277,324 +5180,324 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="n">
+      <c r="A10" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="63" t="n">
+      <c r="B10" s="62" t="n">
         <f aca="false">B9</f>
         <v>0.98</v>
       </c>
-      <c r="C10" s="75" t="n">
+      <c r="C10" s="74" t="n">
         <f aca="false">C9+0.0005</f>
         <v>0.004</v>
       </c>
-      <c r="D10" s="63" t="n">
+      <c r="D10" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="75" t="n">
+      <c r="E10" s="74" t="n">
         <f aca="false">E9+0.0005</f>
         <v>0.004</v>
       </c>
-      <c r="F10" s="76" t="n">
+      <c r="F10" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H10" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="I10" s="77" t="n">
+      <c r="I10" s="76" t="n">
         <f aca="false">I9</f>
         <v>0.003</v>
       </c>
-      <c r="J10" s="78" t="n">
+      <c r="J10" s="77" t="n">
         <f aca="false">I10</f>
         <v>0.003</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="88" t="n">
+      <c r="M10" s="87" t="n">
         <v>0.01</v>
       </c>
-      <c r="N10" s="89" t="n">
+      <c r="N10" s="88" t="n">
         <v>0.005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="n">
+      <c r="A11" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="63" t="n">
+      <c r="B11" s="62" t="n">
         <f aca="false">B10</f>
         <v>0.98</v>
       </c>
-      <c r="C11" s="75" t="n">
+      <c r="C11" s="74" t="n">
         <f aca="false">C10+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="D11" s="63" t="n">
+      <c r="D11" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="75" t="n">
+      <c r="E11" s="74" t="n">
         <f aca="false">E10+0.0005</f>
         <v>0.0045</v>
       </c>
-      <c r="F11" s="76" t="n">
+      <c r="F11" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H11" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="77" t="n">
+      <c r="I11" s="76" t="n">
         <f aca="false">I10</f>
         <v>0.003</v>
       </c>
-      <c r="J11" s="78" t="n">
+      <c r="J11" s="77" t="n">
         <f aca="false">I11</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="n">
+      <c r="A12" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="63" t="n">
+      <c r="B12" s="62" t="n">
         <f aca="false">B11</f>
         <v>0.98</v>
       </c>
-      <c r="C12" s="75" t="n">
+      <c r="C12" s="74" t="n">
         <f aca="false">C11+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="D12" s="63" t="n">
+      <c r="D12" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="75" t="n">
+      <c r="E12" s="74" t="n">
         <f aca="false">E11+0.0005</f>
         <v>0.005</v>
       </c>
-      <c r="F12" s="76" t="n">
+      <c r="F12" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H12" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="77" t="n">
+      <c r="I12" s="76" t="n">
         <f aca="false">I11</f>
         <v>0.003</v>
       </c>
-      <c r="J12" s="78" t="n">
+      <c r="J12" s="77" t="n">
         <f aca="false">I12</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="n">
+      <c r="A13" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="63" t="n">
+      <c r="B13" s="62" t="n">
         <f aca="false">B12</f>
         <v>0.98</v>
       </c>
-      <c r="C13" s="75" t="n">
+      <c r="C13" s="74" t="n">
         <f aca="false">C12+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="D13" s="63" t="n">
+      <c r="D13" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="75" t="n">
+      <c r="E13" s="74" t="n">
         <f aca="false">E12+0.0005</f>
         <v>0.0055</v>
       </c>
-      <c r="F13" s="76" t="n">
+      <c r="F13" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H13" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="77" t="n">
+      <c r="I13" s="76" t="n">
         <f aca="false">I12</f>
         <v>0.003</v>
       </c>
-      <c r="J13" s="78" t="n">
+      <c r="J13" s="77" t="n">
         <f aca="false">I13</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="n">
+      <c r="A14" s="56" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="63" t="n">
+      <c r="B14" s="62" t="n">
         <f aca="false">B13</f>
         <v>0.98</v>
       </c>
-      <c r="C14" s="75" t="n">
+      <c r="C14" s="74" t="n">
         <f aca="false">C13+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="D14" s="63" t="n">
+      <c r="D14" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="75" t="n">
+      <c r="E14" s="74" t="n">
         <f aca="false">E13+0.0005</f>
         <v>0.006</v>
       </c>
-      <c r="F14" s="76" t="n">
+      <c r="F14" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H14" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="I14" s="77" t="n">
+      <c r="I14" s="76" t="n">
         <f aca="false">I13</f>
         <v>0.003</v>
       </c>
-      <c r="J14" s="78" t="n">
+      <c r="J14" s="77" t="n">
         <f aca="false">I14</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="n">
+      <c r="A15" s="56" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="63" t="n">
+      <c r="B15" s="62" t="n">
         <f aca="false">B14</f>
         <v>0.98</v>
       </c>
-      <c r="C15" s="75" t="n">
+      <c r="C15" s="74" t="n">
         <v>0.01</v>
       </c>
-      <c r="D15" s="90" t="n">
+      <c r="D15" s="89" t="n">
         <v>0.01</v>
       </c>
-      <c r="E15" s="75" t="n">
+      <c r="E15" s="74" t="n">
         <f aca="false">E14+0.0005</f>
         <v>0.0065</v>
       </c>
-      <c r="F15" s="76" t="n">
+      <c r="F15" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H15" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="I15" s="77" t="n">
+      <c r="I15" s="76" t="n">
         <f aca="false">I14</f>
         <v>0.003</v>
       </c>
-      <c r="J15" s="78" t="n">
+      <c r="J15" s="77" t="n">
         <f aca="false">I15</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57" t="n">
+      <c r="A16" s="56" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="63" t="n">
+      <c r="B16" s="62" t="n">
         <f aca="false">B15</f>
         <v>0.98</v>
       </c>
-      <c r="C16" s="75" t="n">
+      <c r="C16" s="74" t="n">
         <v>0.011</v>
       </c>
-      <c r="D16" s="90" t="n">
+      <c r="D16" s="89" t="n">
         <v>0.015</v>
       </c>
-      <c r="E16" s="75" t="n">
+      <c r="E16" s="74" t="n">
         <f aca="false">E15+0.0005</f>
         <v>0.007</v>
       </c>
-      <c r="F16" s="76" t="n">
+      <c r="F16" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H16" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="I16" s="77" t="n">
+      <c r="I16" s="76" t="n">
         <f aca="false">I15</f>
         <v>0.003</v>
       </c>
-      <c r="J16" s="78" t="n">
+      <c r="J16" s="77" t="n">
         <f aca="false">I16</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="n">
+      <c r="A17" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="63" t="n">
+      <c r="B17" s="62" t="n">
         <f aca="false">B16</f>
         <v>0.98</v>
       </c>
-      <c r="C17" s="75" t="n">
+      <c r="C17" s="74" t="n">
         <v>0.012</v>
       </c>
-      <c r="D17" s="90" t="n">
+      <c r="D17" s="89" t="n">
         <v>0.02</v>
       </c>
-      <c r="E17" s="75" t="n">
+      <c r="E17" s="74" t="n">
         <f aca="false">E16+0.0005</f>
         <v>0.0075</v>
       </c>
-      <c r="F17" s="76" t="n">
+      <c r="F17" s="75" t="n">
         <v>0.05</v>
       </c>
       <c r="H17" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="I17" s="77" t="n">
+      <c r="I17" s="76" t="n">
         <f aca="false">I16</f>
         <v>0.003</v>
       </c>
-      <c r="J17" s="78" t="n">
+      <c r="J17" s="77" t="n">
         <f aca="false">I17</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59" t="n">
+      <c r="A18" s="58" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="72" t="n">
+      <c r="B18" s="71" t="n">
         <f aca="false">B17</f>
         <v>0.98</v>
       </c>
-      <c r="C18" s="91" t="n">
+      <c r="C18" s="90" t="n">
         <v>0.015</v>
       </c>
-      <c r="D18" s="88" t="n">
+      <c r="D18" s="87" t="n">
         <v>0.03</v>
       </c>
-      <c r="E18" s="91" t="n">
+      <c r="E18" s="90" t="n">
         <f aca="false">E17+0.0005</f>
         <v>0.008</v>
       </c>
-      <c r="F18" s="92" t="n">
+      <c r="F18" s="91" t="n">
         <v>0.05</v>
       </c>
       <c r="H18" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="I18" s="93" t="n">
+      <c r="I18" s="92" t="n">
         <f aca="false">I17</f>
         <v>0.003</v>
       </c>
-      <c r="J18" s="94" t="n">
+      <c r="J18" s="93" t="n">
         <f aca="false">I18</f>
         <v>0.003</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="63"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
@@ -5645,20 +5548,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="17.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+    <row r="1" s="49" customFormat="true" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5695,28 +5598,28 @@
       <c r="D6" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="50"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5744,7 +5647,7 @@
       </c>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" s="50" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="49" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
@@ -5755,7 +5658,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="0"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
@@ -5767,25 +5670,25 @@
       <c r="E15" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="96" t="s">
         <v>187</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -5832,29 +5735,29 @@
       <c r="G23" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="97" t="s">
+      <c r="G26" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="49" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5992,7 +5895,7 @@
       <c r="G42" s="37"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="97" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6002,19 +5905,19 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="96" t="s">
+      <c r="C47" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D47" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="97" t="s">
+      <c r="E47" s="96" t="s">
         <v>201</v>
       </c>
     </row>
